--- a/tests/resources/BASES.xlsx
+++ b/tests/resources/BASES.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/cameron_pinnegar_education_gov_uk/Documents/Documents/xlcalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpinnegar\OneDrive - Department for Education\Documents\xlcalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E5EFA5-CED1-4088-AAAC-FBE47970566A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8F0F3-6224-4998-8E41-348F3478D04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dec2" sheetId="1" r:id="rId1"/>
     <sheet name="bin2" sheetId="2" r:id="rId2"/>
     <sheet name="oct2" sheetId="3" r:id="rId3"/>
     <sheet name="hex2" sheetId="4" r:id="rId4"/>
+    <sheet name="places" sheetId="5" r:id="rId5"/>
+    <sheet name="places-dec2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>The most important values to test are at and around powers of 2: implementation errors will likely manifest there.</t>
   </si>
@@ -203,12 +205,21 @@
   <si>
     <t>d5a</t>
   </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>decbin, dec2oct and dec2hex have weird behavior for negative numbers when a place is set; uniquely they still return a value even when the number of places is insufficient (bug in excel?)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -221,6 +232,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -285,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -297,12 +314,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,39 +729,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="W1" s="12" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="W1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -6438,7 +6457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -7291,4 +7310,6639 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5F4525-29BC-435A-8A1E-332B37198F8C}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="e">
+        <f>BIN2OCT(A2,B2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <f>BIN2HEX(A2,B2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <f>OCT2BIN(A2,B2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <f>OCT2HEX(A2,B2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>DEC2BIN(A2,B2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <f>DEC2OCT(A2,B2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" t="e">
+        <f>DEC2HEX(A2,B2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" t="e">
+        <f>HEX2BIN(A2,B2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" t="e">
+        <f>HEX2OCT(A2,B2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f t="shared" ref="C3:C30" si="0">BIN2OCT(A3,B3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f t="shared" ref="D3:D30" si="1">BIN2HEX(A3,B3)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="e">
+        <f t="shared" ref="E3:E30" si="2">OCT2BIN(A3,B3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f t="shared" ref="F3:F30" si="3">OCT2HEX(A3,B3)</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="e">
+        <f t="shared" ref="G3:G30" si="4">DEC2BIN(A3,B3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" s="10" t="e">
+        <f t="shared" ref="H3:H30" si="5">DEC2OCT(A3,B3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f t="shared" ref="I3:I30" si="6">DEC2HEX(A3,B3)</f>
+        <v>A</v>
+      </c>
+      <c r="J3" s="10" t="e">
+        <f t="shared" ref="J3:J30" si="7">HEX2BIN(A3,B3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" s="10" t="e">
+        <f t="shared" ref="K3:K30" si="8">HEX2OCT(A3,B3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+      <c r="E4" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>08</v>
+      </c>
+      <c r="G4" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0A</v>
+      </c>
+      <c r="J4" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>002</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>002</v>
+      </c>
+      <c r="E5" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>008</v>
+      </c>
+      <c r="G5" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>012</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00A</v>
+      </c>
+      <c r="J5" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0002</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>0008</v>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>1010</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>0012</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000A</v>
+      </c>
+      <c r="J6" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>0020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00002</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>01000</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>00008</v>
+      </c>
+      <c r="G7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>01010</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>00012</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000A</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>00020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000002</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000002</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>001000</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>000008</v>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>001010</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>000012</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00000A</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>010000</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>000020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000002</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000002</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0001000</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>0000008</v>
+      </c>
+      <c r="G9" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0001010</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>0000012</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000000A</v>
+      </c>
+      <c r="J9" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>0010000</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>0000020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00000002</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00000002</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00001000</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>00000008</v>
+      </c>
+      <c r="G10" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>00001010</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>00000012</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000000A</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>00010000</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>00000020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000000002</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000000002</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000001000</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>000000008</v>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>000001010</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>000000012</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00000000A</v>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>000010000</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>000000020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000002</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000002</v>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000001000</v>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000008</v>
+      </c>
+      <c r="G12" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0000001010</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000012</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000000000A</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>0000010000</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>0000000020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D13" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F13" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G13" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H13" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I13" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>123</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F14" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G14" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H14" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I14" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J14" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K14" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>123</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D15" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F15" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G15" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H15" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I15" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J15" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K15" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>123</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D16" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="G16" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H16" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7B</v>
+      </c>
+      <c r="J16" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K16" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>123</v>
+      </c>
+      <c r="B17" s="10">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D17" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E17" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>053</v>
+      </c>
+      <c r="G17" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>07B</v>
+      </c>
+      <c r="J17" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>123</v>
+      </c>
+      <c r="B18" s="10">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D18" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>0053</v>
+      </c>
+      <c r="G18" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>0173</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>007B</v>
+      </c>
+      <c r="J18" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>0443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>123</v>
+      </c>
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D19" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E19" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>00053</v>
+      </c>
+      <c r="G19" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>00173</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0007B</v>
+      </c>
+      <c r="J19" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>00443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>123</v>
+      </c>
+      <c r="B20" s="10">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D20" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>000053</v>
+      </c>
+      <c r="G20" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H20" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>000173</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00007B</v>
+      </c>
+      <c r="J20" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>000443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>123</v>
+      </c>
+      <c r="B21" s="10">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D21" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1010011</v>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>0000053</v>
+      </c>
+      <c r="G21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>1111011</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>0000173</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000007B</v>
+      </c>
+      <c r="J21" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K21" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>0000443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>123</v>
+      </c>
+      <c r="B22" s="10">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D22" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>01010011</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>00000053</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>01111011</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>00000173</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000007B</v>
+      </c>
+      <c r="J22" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>00000443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>123</v>
+      </c>
+      <c r="B23" s="10">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D23" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>001010011</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>000000053</v>
+      </c>
+      <c r="G23" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>001111011</v>
+      </c>
+      <c r="H23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>000000173</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00000007B</v>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>100100011</v>
+      </c>
+      <c r="K23" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>000000443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>123</v>
+      </c>
+      <c r="B24" s="10">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D24" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0001010011</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000053</v>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0001111011</v>
+      </c>
+      <c r="H24" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000173</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000000007B</v>
+      </c>
+      <c r="J24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>0100100011</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>0000000443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>123</v>
+      </c>
+      <c r="B25" s="10">
+        <v>11</v>
+      </c>
+      <c r="C25" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D25" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E25" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F25" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J25" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K25" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D26" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F26" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G26" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J26" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K26" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D27" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F27" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>1111100111</v>
+      </c>
+      <c r="H27" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>7777777747</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J27" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K27" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D28" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E28" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F28" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>1111100111</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>7777777747</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K28" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B29" s="10">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D29" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F29" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>1111100111</v>
+      </c>
+      <c r="H29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>7777777747</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J29" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B30" s="10">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D30" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E30" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F30" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>1111100111</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>7777777747</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J30" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K30" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10" t="e">
+        <f>BIN2OCT(A31,B31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D31" s="10" t="e">
+        <f>BIN2HEX(A31,B31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E31" s="10" t="e">
+        <f>OCT2BIN(A31,B31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F31" s="10" t="e">
+        <f>OCT2HEX(A31,B31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f>DEC2BIN(A31,B31)</f>
+        <v>1111100111</v>
+      </c>
+      <c r="H31" s="10" t="str">
+        <f>DEC2OCT(A31,B31)</f>
+        <v>7777777747</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f>DEC2HEX(A31,B31)</f>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J31" s="10" t="e">
+        <f>HEX2BIN(A31,B31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K31" s="10" t="e">
+        <f>HEX2OCT(A31,B31)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B32" s="10">
+        <v>6</v>
+      </c>
+      <c r="C32" s="10" t="e">
+        <f t="shared" ref="C32:C37" si="9">BIN2OCT(A32,B32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D32" s="10" t="e">
+        <f t="shared" ref="D32:D37" si="10">BIN2HEX(A32,B32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E32" s="10" t="e">
+        <f t="shared" ref="E32:E37" si="11">OCT2BIN(A32,B32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F32" s="10" t="e">
+        <f t="shared" ref="F32:F37" si="12">OCT2HEX(A32,B32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G32" s="10" t="str">
+        <f t="shared" ref="G32:G37" si="13">DEC2BIN(A32,B32)</f>
+        <v>1111100111</v>
+      </c>
+      <c r="H32" s="10" t="str">
+        <f t="shared" ref="H32:H37" si="14">DEC2OCT(A32,B32)</f>
+        <v>7777777747</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" ref="I32:I37" si="15">DEC2HEX(A32,B32)</f>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J32" s="10" t="e">
+        <f t="shared" ref="J32:J37" si="16">HEX2BIN(A32,B32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K32" s="10" t="e">
+        <f t="shared" ref="K32:K37" si="17">HEX2OCT(A32,B32)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B33" s="10">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D33" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E33" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G33" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>1111100111</v>
+      </c>
+      <c r="H33" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>7777777747</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J33" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K33" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B34" s="10">
+        <v>8</v>
+      </c>
+      <c r="C34" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D34" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E34" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F34" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G34" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>1111100111</v>
+      </c>
+      <c r="H34" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>7777777747</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J34" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K34" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B35" s="10">
+        <v>9</v>
+      </c>
+      <c r="C35" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D35" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E35" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F35" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G35" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>1111100111</v>
+      </c>
+      <c r="H35" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>7777777747</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J35" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K35" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B36" s="10">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D36" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E36" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F36" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G36" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>1111100111</v>
+      </c>
+      <c r="H36" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>7777777747</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>FFFFFFFFE7</v>
+      </c>
+      <c r="J36" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K36" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
+        <v>-25</v>
+      </c>
+      <c r="B37" s="10">
+        <v>11</v>
+      </c>
+      <c r="C37" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D37" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E37" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F37" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G37" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H37" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I37" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K37" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="e">
+        <f t="shared" ref="C38:C49" si="18">BIN2OCT(A38,B38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D38" s="10" t="e">
+        <f t="shared" ref="D38:D49" si="19">BIN2HEX(A38,B38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E38" s="10" t="e">
+        <f t="shared" ref="E38:E49" si="20">OCT2BIN(A38,B38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F38" s="10" t="e">
+        <f t="shared" ref="F38:F49" si="21">OCT2HEX(A38,B38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G38" s="10" t="e">
+        <f t="shared" ref="G38:G49" si="22">DEC2BIN(A38,B38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H38" s="10" t="e">
+        <f t="shared" ref="H38:H49" si="23">DEC2OCT(A38,B38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I38" s="10" t="e">
+        <f t="shared" ref="I38:I49" si="24">DEC2HEX(A38,B38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J38" s="10" t="e">
+        <f t="shared" ref="J38:J49" si="25">HEX2BIN(A38,B38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K38" s="10" t="e">
+        <f t="shared" ref="K38:K49" si="26">HEX2OCT(A38,B38)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D39" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E39" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F39" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G39" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I39" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J39" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K39" s="10" t="e">
+        <f t="shared" si="26"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="10">
+        <v>2</v>
+      </c>
+      <c r="C40" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D40" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E40" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F40" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G40" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I40" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J40" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K40" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="10">
+        <v>3</v>
+      </c>
+      <c r="C41" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E41" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F41" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G41" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H41" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I41" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J41" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K41" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="10">
+        <v>4</v>
+      </c>
+      <c r="C42" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D42" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E42" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F42" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G42" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H42" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I42" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J42" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>1110</v>
+      </c>
+      <c r="K42" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>0016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="10">
+        <v>5</v>
+      </c>
+      <c r="C43" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D43" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E43" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F43" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G43" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H43" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J43" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>01110</v>
+      </c>
+      <c r="K43" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>00016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="10">
+        <v>6</v>
+      </c>
+      <c r="C44" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D44" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E44" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F44" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G44" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J44" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>001110</v>
+      </c>
+      <c r="K44" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>000016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="10">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D45" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E45" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F45" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G45" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H45" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J45" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>0001110</v>
+      </c>
+      <c r="K45" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>0000016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="10">
+        <v>8</v>
+      </c>
+      <c r="C46" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D46" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E46" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F46" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G46" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J46" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>00001110</v>
+      </c>
+      <c r="K46" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>00000016</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="10">
+        <v>9</v>
+      </c>
+      <c r="C47" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D47" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F47" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G47" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I47" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J47" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>000001110</v>
+      </c>
+      <c r="K47" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>000000016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="10">
+        <v>10</v>
+      </c>
+      <c r="C48" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D48" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E48" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F48" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G48" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J48" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>0000001110</v>
+      </c>
+      <c r="K48" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>0000000016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="10">
+        <v>11</v>
+      </c>
+      <c r="C49" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D49" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E49" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F49" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G49" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H49" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I49" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J49" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K49" s="10" t="e">
+        <f t="shared" si="26"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064D80C5-7CD0-482D-B2FD-DC296BB55253}">
+  <dimension ref="A1:AO37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="13" width="11.796875" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="11.33203125" customWidth="1"/>
+    <col min="29" max="29" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="41" width="12.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+    </row>
+    <row r="4" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11">
+        <v>7</v>
+      </c>
+      <c r="J4" s="11">
+        <v>8</v>
+      </c>
+      <c r="K4" s="11">
+        <v>9</v>
+      </c>
+      <c r="L4" s="11">
+        <v>10</v>
+      </c>
+      <c r="M4" s="11">
+        <v>11</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>1</v>
+      </c>
+      <c r="R4" s="11">
+        <v>2</v>
+      </c>
+      <c r="S4" s="11">
+        <v>3</v>
+      </c>
+      <c r="T4" s="11">
+        <v>4</v>
+      </c>
+      <c r="U4" s="11">
+        <v>5</v>
+      </c>
+      <c r="V4" s="11">
+        <v>6</v>
+      </c>
+      <c r="W4" s="11">
+        <v>7</v>
+      </c>
+      <c r="X4" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="11">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="11">
+        <v>10</v>
+      </c>
+      <c r="AO4" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="11">
+        <v>0</v>
+      </c>
+      <c r="B5" t="e">
+        <f>DEC2BIN($A5,B$4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f t="shared" ref="C5:M28" si="0">DEC2BIN($A5,C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="G5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00000</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000000</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000</v>
+      </c>
+      <c r="J5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00000000</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000000000</v>
+      </c>
+      <c r="L5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000</v>
+      </c>
+      <c r="M5" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10" t="e">
+        <f>DEC2OCT($O5,P$4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q5" s="10" t="str">
+        <f t="shared" ref="Q5:AA20" si="1">DEC2OCT($O5,Q$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="S5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000</v>
+      </c>
+      <c r="T5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="U5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="V5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000000</v>
+      </c>
+      <c r="W5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000</v>
+      </c>
+      <c r="X5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+      <c r="Y5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000</v>
+      </c>
+      <c r="Z5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000</v>
+      </c>
+      <c r="AA5" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="10" t="e">
+        <f>DEC2HEX($AC5,AD$4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE5" s="10" t="str">
+        <f t="shared" ref="AE5:AO20" si="2">DEC2HEX($AC5,AE$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="AG5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+      <c r="AH5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="AI5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AJ5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000</v>
+      </c>
+      <c r="AK5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000</v>
+      </c>
+      <c r="AL5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="AM5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000000</v>
+      </c>
+      <c r="AN5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000000</v>
+      </c>
+      <c r="AO5" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="e">
+        <f t="shared" ref="B6:D31" si="3">DEC2BIN($A6,B$4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>001</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00001</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000001</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00000001</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000000001</v>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000001</v>
+      </c>
+      <c r="M6" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10" t="e">
+        <f t="shared" ref="P6:P31" si="4">DEC2OCT($O6,P$4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+      <c r="S6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>001</v>
+      </c>
+      <c r="T6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0001</v>
+      </c>
+      <c r="U6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00001</v>
+      </c>
+      <c r="V6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000001</v>
+      </c>
+      <c r="W6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001</v>
+      </c>
+      <c r="X6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00000001</v>
+      </c>
+      <c r="Y6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000000001</v>
+      </c>
+      <c r="Z6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000001</v>
+      </c>
+      <c r="AA6" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10" t="e">
+        <f t="shared" ref="AD6:AO31" si="5">DEC2HEX($AC6,AD$4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="AG6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>001</v>
+      </c>
+      <c r="AH6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0001</v>
+      </c>
+      <c r="AI6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00001</v>
+      </c>
+      <c r="AJ6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000001</v>
+      </c>
+      <c r="AK6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000001</v>
+      </c>
+      <c r="AL6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000001</v>
+      </c>
+      <c r="AM6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000001</v>
+      </c>
+      <c r="AN6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000001</v>
+      </c>
+      <c r="AO6" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>010</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0010</v>
+      </c>
+      <c r="G7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00010</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000010</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00000010</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000000010</v>
+      </c>
+      <c r="L7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000010</v>
+      </c>
+      <c r="M7" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2</v>
+      </c>
+      <c r="P7" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+      <c r="S7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>002</v>
+      </c>
+      <c r="T7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0002</v>
+      </c>
+      <c r="U7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="V7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000002</v>
+      </c>
+      <c r="W7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000002</v>
+      </c>
+      <c r="X7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00000002</v>
+      </c>
+      <c r="Y7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000000002</v>
+      </c>
+      <c r="Z7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000002</v>
+      </c>
+      <c r="AA7" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="AG7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>002</v>
+      </c>
+      <c r="AH7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0002</v>
+      </c>
+      <c r="AI7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AJ7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000002</v>
+      </c>
+      <c r="AK7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000002</v>
+      </c>
+      <c r="AL7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000002</v>
+      </c>
+      <c r="AM7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000002</v>
+      </c>
+      <c r="AN7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000002</v>
+      </c>
+      <c r="AO7" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>011</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0011</v>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00011</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000011</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000011</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>00000011</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>000000011</v>
+      </c>
+      <c r="L8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000011</v>
+      </c>
+      <c r="M8" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O8" s="11">
+        <v>3</v>
+      </c>
+      <c r="P8" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+      <c r="S8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>003</v>
+      </c>
+      <c r="T8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0003</v>
+      </c>
+      <c r="U8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00003</v>
+      </c>
+      <c r="V8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000003</v>
+      </c>
+      <c r="W8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000003</v>
+      </c>
+      <c r="X8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>00000003</v>
+      </c>
+      <c r="Y8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>000000003</v>
+      </c>
+      <c r="Z8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000003</v>
+      </c>
+      <c r="AA8" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AF8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>03</v>
+      </c>
+      <c r="AG8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>003</v>
+      </c>
+      <c r="AH8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0003</v>
+      </c>
+      <c r="AI8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00003</v>
+      </c>
+      <c r="AJ8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000003</v>
+      </c>
+      <c r="AK8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000003</v>
+      </c>
+      <c r="AL8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000003</v>
+      </c>
+      <c r="AM8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000003</v>
+      </c>
+      <c r="AN8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000003</v>
+      </c>
+      <c r="AO8" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="11">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="G9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="J9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="L9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="M9" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O9" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="R9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="S9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="T9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="U9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="V9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="W9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="X9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="Y9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="Z9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777777</v>
+      </c>
+      <c r="AA9" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD9" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AF9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AG9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AH9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AI9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AJ9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AK9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AL9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AM9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AN9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="AO9" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="11">
+        <v>-2</v>
+      </c>
+      <c r="B10" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="G10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="L10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="M10" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O10" s="11">
+        <v>-2</v>
+      </c>
+      <c r="P10" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="R10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="S10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="T10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="U10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="V10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="W10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="X10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="Y10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="Z10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777776</v>
+      </c>
+      <c r="AA10" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD10" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AF10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AG10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AH10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AI10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AJ10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AK10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AL10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AM10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AN10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFE</v>
+      </c>
+      <c r="AO10" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="11">
+        <v>-3</v>
+      </c>
+      <c r="B11" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="L11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111101</v>
+      </c>
+      <c r="M11" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O11" s="11">
+        <v>-3</v>
+      </c>
+      <c r="P11" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777775</v>
+      </c>
+      <c r="R11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7777777775</v>
+      </c>
+      <c r="S11" s="10" t="str">
+        <f t="shared" ref="Q11:AA31" si="6">DEC2OCT($O11,S$4)</f>
+        <v>7777777775</v>
+      </c>
+      <c r="T11" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777775</v>
+      </c>
+      <c r="U11" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777775</v>
+      </c>
+      <c r="V11" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777775</v>
+      </c>
+      <c r="W11" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777775</v>
+      </c>
+      <c r="X11" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777775</v>
+      </c>
+      <c r="Y11" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777775</v>
+      </c>
+      <c r="Z11" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777775</v>
+      </c>
+      <c r="AA11" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>-3</v>
+      </c>
+      <c r="AD11" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AF11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AG11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AH11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AI11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AJ11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AK11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AL11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AM11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AN11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFD</v>
+      </c>
+      <c r="AO11" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>01011</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>001011</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>0001011</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>00001011</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>000001011</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001011</v>
+      </c>
+      <c r="M12" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O12" s="11">
+        <v>11</v>
+      </c>
+      <c r="P12" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q12" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="S12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>013</v>
+      </c>
+      <c r="T12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0013</v>
+      </c>
+      <c r="U12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00013</v>
+      </c>
+      <c r="V12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000013</v>
+      </c>
+      <c r="W12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000013</v>
+      </c>
+      <c r="X12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00000013</v>
+      </c>
+      <c r="Y12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000000013</v>
+      </c>
+      <c r="Z12" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000000013</v>
+      </c>
+      <c r="AA12" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>11</v>
+      </c>
+      <c r="AD12" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="AF12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0B</v>
+      </c>
+      <c r="AG12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00B</v>
+      </c>
+      <c r="AH12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000B</v>
+      </c>
+      <c r="AI12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000B</v>
+      </c>
+      <c r="AJ12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000B</v>
+      </c>
+      <c r="AK12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000B</v>
+      </c>
+      <c r="AL12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000B</v>
+      </c>
+      <c r="AM12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000B</v>
+      </c>
+      <c r="AN12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000000B</v>
+      </c>
+      <c r="AO12" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D13" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>01100</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>001100</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>0001100</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>00001100</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>000001100</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001100</v>
+      </c>
+      <c r="M13" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O13" s="11">
+        <v>12</v>
+      </c>
+      <c r="P13" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q13" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R13" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="S13" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>014</v>
+      </c>
+      <c r="T13" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0014</v>
+      </c>
+      <c r="U13" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00014</v>
+      </c>
+      <c r="V13" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000014</v>
+      </c>
+      <c r="W13" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000014</v>
+      </c>
+      <c r="X13" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00000014</v>
+      </c>
+      <c r="Y13" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000000014</v>
+      </c>
+      <c r="Z13" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000000014</v>
+      </c>
+      <c r="AA13" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="AF13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0C</v>
+      </c>
+      <c r="AG13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00C</v>
+      </c>
+      <c r="AH13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000C</v>
+      </c>
+      <c r="AI13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000C</v>
+      </c>
+      <c r="AJ13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000C</v>
+      </c>
+      <c r="AK13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000C</v>
+      </c>
+      <c r="AL13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000C</v>
+      </c>
+      <c r="AM13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000C</v>
+      </c>
+      <c r="AN13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000000C</v>
+      </c>
+      <c r="AO13" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>01101</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>001101</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>0001101</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>00001101</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>000001101</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001101</v>
+      </c>
+      <c r="M14" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O14" s="11">
+        <v>13</v>
+      </c>
+      <c r="P14" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q14" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="S14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>015</v>
+      </c>
+      <c r="T14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0015</v>
+      </c>
+      <c r="U14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00015</v>
+      </c>
+      <c r="V14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000015</v>
+      </c>
+      <c r="W14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000015</v>
+      </c>
+      <c r="X14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00000015</v>
+      </c>
+      <c r="Y14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000000015</v>
+      </c>
+      <c r="Z14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000000015</v>
+      </c>
+      <c r="AA14" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="AF14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0D</v>
+      </c>
+      <c r="AG14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00D</v>
+      </c>
+      <c r="AH14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000D</v>
+      </c>
+      <c r="AI14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000D</v>
+      </c>
+      <c r="AJ14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000D</v>
+      </c>
+      <c r="AK14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000D</v>
+      </c>
+      <c r="AL14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000D</v>
+      </c>
+      <c r="AM14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000D</v>
+      </c>
+      <c r="AN14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000000000D</v>
+      </c>
+      <c r="AO14" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="11">
+        <v>-11</v>
+      </c>
+      <c r="B15" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110101</v>
+      </c>
+      <c r="M15" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O15" s="11">
+        <v>-11</v>
+      </c>
+      <c r="P15" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="R15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="S15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="T15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="U15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="V15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="W15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="X15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="Y15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="Z15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777765</v>
+      </c>
+      <c r="AA15" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>-11</v>
+      </c>
+      <c r="AD15" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AF15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AG15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AH15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AI15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AJ15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AK15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AL15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AM15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AN15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF5</v>
+      </c>
+      <c r="AO15" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="11">
+        <v>-12</v>
+      </c>
+      <c r="B16" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110100</v>
+      </c>
+      <c r="M16" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O16" s="11">
+        <v>-12</v>
+      </c>
+      <c r="P16" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="R16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="S16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="T16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="U16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="V16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="W16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="X16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="Y16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="Z16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777764</v>
+      </c>
+      <c r="AA16" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>-12</v>
+      </c>
+      <c r="AD16" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AF16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AG16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AH16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AI16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AJ16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AK16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AL16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AM16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AN16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF4</v>
+      </c>
+      <c r="AO16" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="11">
+        <v>-13</v>
+      </c>
+      <c r="B17" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>1111110011</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O17" s="11">
+        <v>-13</v>
+      </c>
+      <c r="P17" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="R17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="S17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="T17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="U17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="V17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="W17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="X17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="Y17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="Z17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777777763</v>
+      </c>
+      <c r="AA17" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>-13</v>
+      </c>
+      <c r="AD17" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AF17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AG17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AH17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AI17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AJ17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AK17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AL17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AM17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AN17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFF3</v>
+      </c>
+      <c r="AO17" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="11">
+        <v>101</v>
+      </c>
+      <c r="B18" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D18" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F18" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>1100101</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>01100101</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>001100101</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>0001100101</v>
+      </c>
+      <c r="M18" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O18" s="11">
+        <v>10000</v>
+      </c>
+      <c r="P18" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q18" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R18" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S18" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T18" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U18" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>23420</v>
+      </c>
+      <c r="V18" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>023420</v>
+      </c>
+      <c r="W18" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0023420</v>
+      </c>
+      <c r="X18" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00023420</v>
+      </c>
+      <c r="Y18" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000023420</v>
+      </c>
+      <c r="Z18" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000023420</v>
+      </c>
+      <c r="AA18" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="AD18" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AF18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AH18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>F4240</v>
+      </c>
+      <c r="AJ18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0F4240</v>
+      </c>
+      <c r="AK18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00F4240</v>
+      </c>
+      <c r="AL18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000F4240</v>
+      </c>
+      <c r="AM18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000F4240</v>
+      </c>
+      <c r="AN18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000F4240</v>
+      </c>
+      <c r="AO18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="11">
+        <v>102</v>
+      </c>
+      <c r="B19" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D19" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>1100110</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>01100110</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>001100110</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>0001100110</v>
+      </c>
+      <c r="M19" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O19" s="11">
+        <v>10001</v>
+      </c>
+      <c r="P19" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q19" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S19" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>23421</v>
+      </c>
+      <c r="V19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>023421</v>
+      </c>
+      <c r="W19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0023421</v>
+      </c>
+      <c r="X19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00023421</v>
+      </c>
+      <c r="Y19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000023421</v>
+      </c>
+      <c r="Z19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000023421</v>
+      </c>
+      <c r="AA19" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>1000001</v>
+      </c>
+      <c r="AD19" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE19" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AF19" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG19" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AH19" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>F4241</v>
+      </c>
+      <c r="AJ19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0F4241</v>
+      </c>
+      <c r="AK19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00F4241</v>
+      </c>
+      <c r="AL19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000F4241</v>
+      </c>
+      <c r="AM19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000F4241</v>
+      </c>
+      <c r="AN19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000F4241</v>
+      </c>
+      <c r="AO19" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="11">
+        <v>103</v>
+      </c>
+      <c r="B20" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>1100111</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>01100111</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>001100111</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>0001100111</v>
+      </c>
+      <c r="M20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O20" s="11">
+        <v>10002</v>
+      </c>
+      <c r="P20" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q20" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R20" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S20" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T20" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U20" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>23422</v>
+      </c>
+      <c r="V20" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>023422</v>
+      </c>
+      <c r="W20" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0023422</v>
+      </c>
+      <c r="X20" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>00023422</v>
+      </c>
+      <c r="Y20" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>000023422</v>
+      </c>
+      <c r="Z20" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000023422</v>
+      </c>
+      <c r="AA20" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>1000002</v>
+      </c>
+      <c r="AD20" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE20" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AF20" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG20" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AH20" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>F4242</v>
+      </c>
+      <c r="AJ20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0F4242</v>
+      </c>
+      <c r="AK20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00F4242</v>
+      </c>
+      <c r="AL20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>000F4242</v>
+      </c>
+      <c r="AM20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000F4242</v>
+      </c>
+      <c r="AN20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>00000F4242</v>
+      </c>
+      <c r="AO20" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="11">
+        <v>-101</v>
+      </c>
+      <c r="B21" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011011</v>
+      </c>
+      <c r="M21" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O21" s="11">
+        <v>-10000</v>
+      </c>
+      <c r="P21" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="R21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="S21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="T21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="U21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="V21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="W21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="X21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="Y21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="Z21" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754360</v>
+      </c>
+      <c r="AA21" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>-1000000</v>
+      </c>
+      <c r="AD21" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AF21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AG21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AH21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AI21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AJ21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AK21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AL21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AM21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AN21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDC0</v>
+      </c>
+      <c r="AO21" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="11">
+        <v>-102</v>
+      </c>
+      <c r="B22" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011010</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O22" s="11">
+        <v>-10001</v>
+      </c>
+      <c r="P22" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="R22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="S22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="T22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="U22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="V22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="W22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="X22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="Y22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="Z22" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754357</v>
+      </c>
+      <c r="AA22" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>-1000001</v>
+      </c>
+      <c r="AD22" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AF22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AG22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AH22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AI22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AJ22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AK22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AL22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AM22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AN22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBF</v>
+      </c>
+      <c r="AO22" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="11">
+        <v>-103</v>
+      </c>
+      <c r="B23" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>1110011001</v>
+      </c>
+      <c r="M23" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O23" s="11">
+        <v>-10002</v>
+      </c>
+      <c r="P23" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="R23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="S23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="T23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="U23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="V23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="W23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="X23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="Y23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="Z23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>7777754356</v>
+      </c>
+      <c r="AA23" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>-1000002</v>
+      </c>
+      <c r="AD23" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AF23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AG23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AH23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AI23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AJ23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AK23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AL23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AM23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AN23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFF0BDBE</v>
+      </c>
+      <c r="AO23" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="11">
+        <v>510</v>
+      </c>
+      <c r="B24" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D24" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F24" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J24" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>111111110</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>0111111110</v>
+      </c>
+      <c r="M24" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O24" s="11">
+        <f>2^29 -2</f>
+        <v>536870910</v>
+      </c>
+      <c r="P24" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z24" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>3777777776</v>
+      </c>
+      <c r="AA24" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC24" s="14">
+        <f>2^39 -2</f>
+        <v>549755813886</v>
+      </c>
+      <c r="AD24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AF24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AH24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AJ24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AK24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AL24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AM24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AN24" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>7FFFFFFFFE</v>
+      </c>
+      <c r="AO24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="11">
+        <v>511</v>
+      </c>
+      <c r="B25" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D25" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F25" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J25" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>111111111</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>0111111111</v>
+      </c>
+      <c r="M25" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O25" s="11">
+        <f>O24+1</f>
+        <v>536870911</v>
+      </c>
+      <c r="P25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z25" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>3777777777</v>
+      </c>
+      <c r="AA25" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC25" s="14">
+        <f>AC24+1</f>
+        <v>549755813887</v>
+      </c>
+      <c r="AD25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AF25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AH25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AJ25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AK25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AL25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AM25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AN25" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>7FFFFFFFFF</v>
+      </c>
+      <c r="AO25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="11">
+        <v>512</v>
+      </c>
+      <c r="B26" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M26" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" ref="O26:O27" si="7">O25+1</f>
+        <v>536870912</v>
+      </c>
+      <c r="P26" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA26" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC26" s="14">
+        <f t="shared" ref="AC26:AC27" si="8">AC25+1</f>
+        <v>549755813888</v>
+      </c>
+      <c r="AD26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AF26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AH26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AJ26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AK26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AL26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AM26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AN26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AO26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="11">
+        <v>513</v>
+      </c>
+      <c r="B27" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O27" s="11">
+        <f t="shared" si="7"/>
+        <v>536870913</v>
+      </c>
+      <c r="P27" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC27" s="14">
+        <f t="shared" si="8"/>
+        <v>549755813889</v>
+      </c>
+      <c r="AD27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AF27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AH27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AJ27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AK27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AL27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AM27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AN27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AO27" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="11">
+        <v>-510</v>
+      </c>
+      <c r="B28" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>1000000010</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>1000000010</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ref="E28:M31" si="9">DEC2BIN($A28,E$4)</f>
+        <v>1000000010</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000010</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000010</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000010</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000010</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000010</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000010</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000010</v>
+      </c>
+      <c r="M28" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O28" s="11">
+        <f>-O24</f>
+        <v>-536870910</v>
+      </c>
+      <c r="P28" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="R28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="S28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="T28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="U28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="V28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="W28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="X28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="Y28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="Z28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000002</v>
+      </c>
+      <c r="AA28" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC28" s="14">
+        <f>-AC24</f>
+        <v>-549755813886</v>
+      </c>
+      <c r="AD28" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AF28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AG28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AH28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AI28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AJ28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AK28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AL28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AM28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AN28" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000002</v>
+      </c>
+      <c r="AO28" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="11">
+        <v>-511</v>
+      </c>
+      <c r="B29" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000001</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000001</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000001</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000001</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000001</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000001</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000001</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000001</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000001</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000001</v>
+      </c>
+      <c r="M29" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O29" s="11">
+        <f t="shared" ref="O29:O31" si="10">-O25</f>
+        <v>-536870911</v>
+      </c>
+      <c r="P29" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="R29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="S29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="T29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="U29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="V29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="W29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="X29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="Y29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="Z29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000001</v>
+      </c>
+      <c r="AA29" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC29" s="14">
+        <f t="shared" ref="AC29:AC31" si="11">-AC25</f>
+        <v>-549755813887</v>
+      </c>
+      <c r="AD29" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AF29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AG29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AH29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AI29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AJ29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AK29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AL29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AM29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AN29" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000001</v>
+      </c>
+      <c r="AO29" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="11">
+        <v>-512</v>
+      </c>
+      <c r="B30" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000000</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000000</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000000</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000000</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000000</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000000</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000000</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000000</v>
+      </c>
+      <c r="M30" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="10"/>
+        <v>-536870912</v>
+      </c>
+      <c r="P30" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="R30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="S30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="T30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="U30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="V30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="W30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="X30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="Y30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="Z30" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="AA30" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC30" s="14">
+        <f t="shared" si="11"/>
+        <v>-549755813888</v>
+      </c>
+      <c r="AD30" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AF30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AG30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AH30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AI30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AJ30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AK30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AL30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AM30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AN30" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000000</v>
+      </c>
+      <c r="AO30" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="11">
+        <v>-513</v>
+      </c>
+      <c r="B31" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D31" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F31" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J31" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M31" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="10"/>
+        <v>-536870913</v>
+      </c>
+      <c r="P31" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA31" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC31" s="14">
+        <f t="shared" si="11"/>
+        <v>-549755813889</v>
+      </c>
+      <c r="AD31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AF31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AH31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AJ31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AK31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AL31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AM31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AN31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AO31" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+    </row>
+    <row r="33" spans="16:27" x14ac:dyDescent="0.35">
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+    </row>
+    <row r="34" spans="16:27" x14ac:dyDescent="0.35">
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+    </row>
+    <row r="35" spans="16:27" x14ac:dyDescent="0.35">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+    </row>
+    <row r="36" spans="16:27" x14ac:dyDescent="0.35">
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+    </row>
+    <row r="37" spans="16:27" x14ac:dyDescent="0.35">
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/resources/BASES.xlsx
+++ b/tests/resources/BASES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpinnegar\OneDrive - Department for Education\Documents\xlcalculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/cameron_pinnegar_education_gov_uk/Documents/Documents/xlcalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8F0F3-6224-4998-8E41-348F3478D04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{94A8F0F3-6224-4998-8E41-348F3478D04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD5095B3-EDA2-4D31-BF64-2D7CADBF566F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="hex2" sheetId="4" r:id="rId4"/>
     <sheet name="places" sheetId="5" r:id="rId5"/>
     <sheet name="places-dec2" sheetId="6" r:id="rId6"/>
+    <sheet name="non-numeric" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>The most important values to test are at and around powers of 2: implementation errors will likely manifest there.</t>
   </si>
@@ -214,6 +215,27 @@
   <si>
     <t>decbin, dec2oct and dec2hex have weird behavior for negative numbers when a place is set; uniquely they still return a value even when the number of places is insufficient (bug in excel?)</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
 </sst>
 </file>
 
@@ -315,13 +337,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -729,39 +751,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="W1" s="13" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="W1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
     </row>
     <row r="2" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -5946,7 +5968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6458,7 +6482,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -7316,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5F4525-29BC-435A-8A1E-332B37198F8C}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -9490,7 +9514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064D80C5-7CD0-482D-B2FD-DC296BB55253}">
   <dimension ref="A1:AO37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9661,153 +9687,153 @@
         <v>0</v>
       </c>
       <c r="B5" t="e">
-        <f>DEC2BIN($A5,B$4)</f>
+        <f>DEC2BIN(A5,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C5" s="10" t="str">
-        <f t="shared" ref="C5:M28" si="0">DEC2BIN($A5,C$4)</f>
+        <f>DEC2BIN(A5,C4)</f>
         <v>0</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,D4)</f>
         <v>00</v>
       </c>
       <c r="E5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,E4)</f>
         <v>000</v>
       </c>
       <c r="F5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,F4)</f>
         <v>0000</v>
       </c>
       <c r="G5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,G4)</f>
         <v>00000</v>
       </c>
       <c r="H5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,H4)</f>
         <v>000000</v>
       </c>
       <c r="I5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,I4)</f>
         <v>0000000</v>
       </c>
       <c r="J5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,J4)</f>
         <v>00000000</v>
       </c>
       <c r="K5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,K4)</f>
         <v>000000000</v>
       </c>
       <c r="L5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,L4)</f>
         <v>0000000000</v>
       </c>
       <c r="M5" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A5,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O5" s="11">
         <v>0</v>
       </c>
       <c r="P5" s="10" t="e">
-        <f>DEC2OCT($O5,P$4)</f>
+        <f>DEC2OCT(O5,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q5" s="10" t="str">
-        <f t="shared" ref="Q5:AA20" si="1">DEC2OCT($O5,Q$4)</f>
+        <f>DEC2OCT(O5,Q4)</f>
         <v>0</v>
       </c>
       <c r="R5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O5,R4)</f>
         <v>00</v>
       </c>
       <c r="S5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O5,S4)</f>
         <v>000</v>
       </c>
       <c r="T5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O5,T4)</f>
         <v>0000</v>
       </c>
       <c r="U5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O5,U4)</f>
         <v>00000</v>
       </c>
       <c r="V5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O5,V4)</f>
         <v>000000</v>
       </c>
       <c r="W5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O5,W4)</f>
         <v>0000000</v>
       </c>
       <c r="X5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O5,X4)</f>
         <v>00000000</v>
       </c>
       <c r="Y5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O5,Y4)</f>
         <v>000000000</v>
       </c>
       <c r="Z5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O5,Z4)</f>
         <v>0000000000</v>
       </c>
       <c r="AA5" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC5" s="14">
+        <f>DEC2OCT(O5,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC5" s="12">
         <v>0</v>
       </c>
       <c r="AD5" s="10" t="e">
-        <f>DEC2HEX($AC5,AD$4)</f>
+        <f>DEC2HEX(AC5,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE5" s="10" t="str">
-        <f t="shared" ref="AE5:AO20" si="2">DEC2HEX($AC5,AE$4)</f>
+        <f>DEC2HEX(AC5,AE4)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AF4)</f>
         <v>00</v>
       </c>
       <c r="AG5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AG4)</f>
         <v>000</v>
       </c>
       <c r="AH5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AH4)</f>
         <v>0000</v>
       </c>
       <c r="AI5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AI4)</f>
         <v>00000</v>
       </c>
       <c r="AJ5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AJ4)</f>
         <v>000000</v>
       </c>
       <c r="AK5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AK4)</f>
         <v>0000000</v>
       </c>
       <c r="AL5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AL4)</f>
         <v>00000000</v>
       </c>
       <c r="AM5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AM4)</f>
         <v>000000000</v>
       </c>
       <c r="AN5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AN4)</f>
         <v>0000000000</v>
       </c>
       <c r="AO5" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC5,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9816,153 +9842,153 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="e">
-        <f t="shared" ref="B6:D31" si="3">DEC2BIN($A6,B$4)</f>
+        <f>DEC2BIN(A6,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,C4)</f>
         <v>1</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,D4)</f>
         <v>01</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,E4)</f>
         <v>001</v>
       </c>
       <c r="F6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,F4)</f>
         <v>0001</v>
       </c>
       <c r="G6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,G4)</f>
         <v>00001</v>
       </c>
       <c r="H6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,H4)</f>
         <v>000001</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,I4)</f>
         <v>0000001</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,J4)</f>
         <v>00000001</v>
       </c>
       <c r="K6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,K4)</f>
         <v>000000001</v>
       </c>
       <c r="L6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,L4)</f>
         <v>0000000001</v>
       </c>
       <c r="M6" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A6,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O6" s="11">
         <v>1</v>
       </c>
       <c r="P6" s="10" t="e">
-        <f t="shared" ref="P6:P31" si="4">DEC2OCT($O6,P$4)</f>
+        <f>DEC2OCT(O6,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,Q4)</f>
         <v>1</v>
       </c>
       <c r="R6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,R4)</f>
         <v>01</v>
       </c>
       <c r="S6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,S4)</f>
         <v>001</v>
       </c>
       <c r="T6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,T4)</f>
         <v>0001</v>
       </c>
       <c r="U6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,U4)</f>
         <v>00001</v>
       </c>
       <c r="V6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,V4)</f>
         <v>000001</v>
       </c>
       <c r="W6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,W4)</f>
         <v>0000001</v>
       </c>
       <c r="X6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,X4)</f>
         <v>00000001</v>
       </c>
       <c r="Y6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,Y4)</f>
         <v>000000001</v>
       </c>
       <c r="Z6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O6,Z4)</f>
         <v>0000000001</v>
       </c>
       <c r="AA6" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC6" s="14">
+        <f>DEC2OCT(O6,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC6" s="12">
         <v>1</v>
       </c>
       <c r="AD6" s="10" t="e">
-        <f t="shared" ref="AD6:AO31" si="5">DEC2HEX($AC6,AD$4)</f>
+        <f>DEC2HEX(AC6,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AE4)</f>
         <v>1</v>
       </c>
       <c r="AF6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AF4)</f>
         <v>01</v>
       </c>
       <c r="AG6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AG4)</f>
         <v>001</v>
       </c>
       <c r="AH6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AH4)</f>
         <v>0001</v>
       </c>
       <c r="AI6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AI4)</f>
         <v>00001</v>
       </c>
       <c r="AJ6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AJ4)</f>
         <v>000001</v>
       </c>
       <c r="AK6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AK4)</f>
         <v>0000001</v>
       </c>
       <c r="AL6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AL4)</f>
         <v>00000001</v>
       </c>
       <c r="AM6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AM4)</f>
         <v>000000001</v>
       </c>
       <c r="AN6" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AN4)</f>
         <v>0000000001</v>
       </c>
       <c r="AO6" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC6,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9971,153 +9997,153 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A7,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C7" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,D4)</f>
         <v>10</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,E4)</f>
         <v>010</v>
       </c>
       <c r="F7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,F4)</f>
         <v>0010</v>
       </c>
       <c r="G7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,G4)</f>
         <v>00010</v>
       </c>
       <c r="H7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,H4)</f>
         <v>000010</v>
       </c>
       <c r="I7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,I4)</f>
         <v>0000010</v>
       </c>
       <c r="J7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,J4)</f>
         <v>00000010</v>
       </c>
       <c r="K7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,K4)</f>
         <v>000000010</v>
       </c>
       <c r="L7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,L4)</f>
         <v>0000000010</v>
       </c>
       <c r="M7" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A7,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O7" s="11">
         <v>2</v>
       </c>
       <c r="P7" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O7,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,Q4)</f>
         <v>2</v>
       </c>
       <c r="R7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,R4)</f>
         <v>02</v>
       </c>
       <c r="S7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,S4)</f>
         <v>002</v>
       </c>
       <c r="T7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,T4)</f>
         <v>0002</v>
       </c>
       <c r="U7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,U4)</f>
         <v>00002</v>
       </c>
       <c r="V7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,V4)</f>
         <v>000002</v>
       </c>
       <c r="W7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,W4)</f>
         <v>0000002</v>
       </c>
       <c r="X7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,X4)</f>
         <v>00000002</v>
       </c>
       <c r="Y7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,Y4)</f>
         <v>000000002</v>
       </c>
       <c r="Z7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O7,Z4)</f>
         <v>0000000002</v>
       </c>
       <c r="AA7" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC7" s="14">
+        <f>DEC2OCT(O7,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC7" s="12">
         <v>2</v>
       </c>
       <c r="AD7" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC7,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AE4)</f>
         <v>2</v>
       </c>
       <c r="AF7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AF4)</f>
         <v>02</v>
       </c>
       <c r="AG7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AG4)</f>
         <v>002</v>
       </c>
       <c r="AH7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AH4)</f>
         <v>0002</v>
       </c>
       <c r="AI7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AI4)</f>
         <v>00002</v>
       </c>
       <c r="AJ7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AJ4)</f>
         <v>000002</v>
       </c>
       <c r="AK7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AK4)</f>
         <v>0000002</v>
       </c>
       <c r="AL7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AL4)</f>
         <v>00000002</v>
       </c>
       <c r="AM7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AM4)</f>
         <v>000000002</v>
       </c>
       <c r="AN7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AN4)</f>
         <v>0000000002</v>
       </c>
       <c r="AO7" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC7,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10126,153 +10152,153 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A8,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C8" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,D4)</f>
         <v>11</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,E4)</f>
         <v>011</v>
       </c>
       <c r="F8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,F4)</f>
         <v>0011</v>
       </c>
       <c r="G8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,G4)</f>
         <v>00011</v>
       </c>
       <c r="H8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,H4)</f>
         <v>000011</v>
       </c>
       <c r="I8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,I4)</f>
         <v>0000011</v>
       </c>
       <c r="J8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,J4)</f>
         <v>00000011</v>
       </c>
       <c r="K8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,K4)</f>
         <v>000000011</v>
       </c>
       <c r="L8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,L4)</f>
         <v>0000000011</v>
       </c>
       <c r="M8" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A8,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O8" s="11">
         <v>3</v>
       </c>
       <c r="P8" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O8,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,Q4)</f>
         <v>3</v>
       </c>
       <c r="R8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,R4)</f>
         <v>03</v>
       </c>
       <c r="S8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,S4)</f>
         <v>003</v>
       </c>
       <c r="T8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,T4)</f>
         <v>0003</v>
       </c>
       <c r="U8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,U4)</f>
         <v>00003</v>
       </c>
       <c r="V8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,V4)</f>
         <v>000003</v>
       </c>
       <c r="W8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,W4)</f>
         <v>0000003</v>
       </c>
       <c r="X8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,X4)</f>
         <v>00000003</v>
       </c>
       <c r="Y8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,Y4)</f>
         <v>000000003</v>
       </c>
       <c r="Z8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O8,Z4)</f>
         <v>0000000003</v>
       </c>
       <c r="AA8" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC8" s="14">
+        <f>DEC2OCT(O8,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC8" s="12">
         <v>3</v>
       </c>
       <c r="AD8" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC8,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AE4)</f>
         <v>3</v>
       </c>
       <c r="AF8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AF4)</f>
         <v>03</v>
       </c>
       <c r="AG8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AG4)</f>
         <v>003</v>
       </c>
       <c r="AH8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AH4)</f>
         <v>0003</v>
       </c>
       <c r="AI8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AI4)</f>
         <v>00003</v>
       </c>
       <c r="AJ8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AJ4)</f>
         <v>000003</v>
       </c>
       <c r="AK8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AK4)</f>
         <v>0000003</v>
       </c>
       <c r="AL8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AL4)</f>
         <v>00000003</v>
       </c>
       <c r="AM8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AM4)</f>
         <v>000000003</v>
       </c>
       <c r="AN8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AN4)</f>
         <v>0000000003</v>
       </c>
       <c r="AO8" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC8,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10281,153 +10307,153 @@
         <v>-1</v>
       </c>
       <c r="B9" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A9,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,C4)</f>
         <v>1111111111</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,D4)</f>
         <v>1111111111</v>
       </c>
       <c r="E9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,E4)</f>
         <v>1111111111</v>
       </c>
       <c r="F9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,F4)</f>
         <v>1111111111</v>
       </c>
       <c r="G9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,G4)</f>
         <v>1111111111</v>
       </c>
       <c r="H9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,H4)</f>
         <v>1111111111</v>
       </c>
       <c r="I9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,I4)</f>
         <v>1111111111</v>
       </c>
       <c r="J9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,J4)</f>
         <v>1111111111</v>
       </c>
       <c r="K9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,K4)</f>
         <v>1111111111</v>
       </c>
       <c r="L9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,L4)</f>
         <v>1111111111</v>
       </c>
       <c r="M9" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A9,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O9" s="11">
         <v>-1</v>
       </c>
       <c r="P9" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O9,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,Q4)</f>
         <v>7777777777</v>
       </c>
       <c r="R9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,R4)</f>
         <v>7777777777</v>
       </c>
       <c r="S9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,S4)</f>
         <v>7777777777</v>
       </c>
       <c r="T9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,T4)</f>
         <v>7777777777</v>
       </c>
       <c r="U9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,U4)</f>
         <v>7777777777</v>
       </c>
       <c r="V9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,V4)</f>
         <v>7777777777</v>
       </c>
       <c r="W9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,W4)</f>
         <v>7777777777</v>
       </c>
       <c r="X9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,X4)</f>
         <v>7777777777</v>
       </c>
       <c r="Y9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,Y4)</f>
         <v>7777777777</v>
       </c>
       <c r="Z9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O9,Z4)</f>
         <v>7777777777</v>
       </c>
       <c r="AA9" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC9" s="14">
+        <f>DEC2OCT(O9,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC9" s="12">
         <v>-1</v>
       </c>
       <c r="AD9" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC9,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AE4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AF9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AF4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AG9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AG4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AH9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AH4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AI9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AI4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AJ9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AJ4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AK9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AK4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AL9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AL4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AM9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AM4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AN9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AN4)</f>
         <v>FFFFFFFFFF</v>
       </c>
       <c r="AO9" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC9,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10436,153 +10462,153 @@
         <v>-2</v>
       </c>
       <c r="B10" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A10,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,C4)</f>
         <v>1111111110</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,D4)</f>
         <v>1111111110</v>
       </c>
       <c r="E10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,E4)</f>
         <v>1111111110</v>
       </c>
       <c r="F10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,F4)</f>
         <v>1111111110</v>
       </c>
       <c r="G10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,G4)</f>
         <v>1111111110</v>
       </c>
       <c r="H10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,H4)</f>
         <v>1111111110</v>
       </c>
       <c r="I10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,I4)</f>
         <v>1111111110</v>
       </c>
       <c r="J10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,J4)</f>
         <v>1111111110</v>
       </c>
       <c r="K10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,K4)</f>
         <v>1111111110</v>
       </c>
       <c r="L10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,L4)</f>
         <v>1111111110</v>
       </c>
       <c r="M10" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A10,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O10" s="11">
         <v>-2</v>
       </c>
       <c r="P10" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O10,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,Q4)</f>
         <v>7777777776</v>
       </c>
       <c r="R10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,R4)</f>
         <v>7777777776</v>
       </c>
       <c r="S10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,S4)</f>
         <v>7777777776</v>
       </c>
       <c r="T10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,T4)</f>
         <v>7777777776</v>
       </c>
       <c r="U10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,U4)</f>
         <v>7777777776</v>
       </c>
       <c r="V10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,V4)</f>
         <v>7777777776</v>
       </c>
       <c r="W10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,W4)</f>
         <v>7777777776</v>
       </c>
       <c r="X10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,X4)</f>
         <v>7777777776</v>
       </c>
       <c r="Y10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,Y4)</f>
         <v>7777777776</v>
       </c>
       <c r="Z10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O10,Z4)</f>
         <v>7777777776</v>
       </c>
       <c r="AA10" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC10" s="14">
+        <f>DEC2OCT(O10,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC10" s="12">
         <v>-2</v>
       </c>
       <c r="AD10" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC10,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AE4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AF10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AF4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AG10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AG4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AH10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AH4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AI10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AI4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AJ10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AJ4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AK10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AK4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AL10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AL4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AM10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AM4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AN10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AN4)</f>
         <v>FFFFFFFFFE</v>
       </c>
       <c r="AO10" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC10,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10591,153 +10617,153 @@
         <v>-3</v>
       </c>
       <c r="B11" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A11,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,C4)</f>
         <v>1111111101</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,D4)</f>
         <v>1111111101</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,E4)</f>
         <v>1111111101</v>
       </c>
       <c r="F11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,F4)</f>
         <v>1111111101</v>
       </c>
       <c r="G11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,G4)</f>
         <v>1111111101</v>
       </c>
       <c r="H11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,H4)</f>
         <v>1111111101</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,I4)</f>
         <v>1111111101</v>
       </c>
       <c r="J11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,J4)</f>
         <v>1111111101</v>
       </c>
       <c r="K11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,K4)</f>
         <v>1111111101</v>
       </c>
       <c r="L11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,L4)</f>
         <v>1111111101</v>
       </c>
       <c r="M11" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A11,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O11" s="11">
         <v>-3</v>
       </c>
       <c r="P11" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O11,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q11" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O11,Q4)</f>
         <v>7777777775</v>
       </c>
       <c r="R11" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2OCT(O11,R4)</f>
         <v>7777777775</v>
       </c>
       <c r="S11" s="10" t="str">
-        <f t="shared" ref="Q11:AA31" si="6">DEC2OCT($O11,S$4)</f>
+        <f>DEC2OCT(O11,S4)</f>
         <v>7777777775</v>
       </c>
       <c r="T11" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O11,T4)</f>
         <v>7777777775</v>
       </c>
       <c r="U11" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O11,U4)</f>
         <v>7777777775</v>
       </c>
       <c r="V11" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O11,V4)</f>
         <v>7777777775</v>
       </c>
       <c r="W11" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O11,W4)</f>
         <v>7777777775</v>
       </c>
       <c r="X11" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O11,X4)</f>
         <v>7777777775</v>
       </c>
       <c r="Y11" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O11,Y4)</f>
         <v>7777777775</v>
       </c>
       <c r="Z11" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O11,Z4)</f>
         <v>7777777775</v>
       </c>
       <c r="AA11" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC11" s="14">
+        <f>DEC2OCT(O11,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC11" s="12">
         <v>-3</v>
       </c>
       <c r="AD11" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC11,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AE4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AF11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AF4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AG11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AG4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AH11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AH4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AI11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AI4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AJ11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AJ4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AK11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AK4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AL11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AL4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AM11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AM4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AN11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AN4)</f>
         <v>FFFFFFFFFD</v>
       </c>
       <c r="AO11" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC11,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10746,153 +10772,153 @@
         <v>11</v>
       </c>
       <c r="B12" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A12,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C12" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D12" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E12" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,F4)</f>
         <v>1011</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,G4)</f>
         <v>01011</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,H4)</f>
         <v>001011</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,I4)</f>
         <v>0001011</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,J4)</f>
         <v>00001011</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,K4)</f>
         <v>000001011</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,L4)</f>
         <v>0000001011</v>
       </c>
       <c r="M12" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A12,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O12" s="11">
         <v>11</v>
       </c>
       <c r="P12" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O12,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q12" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,R4)</f>
         <v>13</v>
       </c>
       <c r="S12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,S4)</f>
         <v>013</v>
       </c>
       <c r="T12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,T4)</f>
         <v>0013</v>
       </c>
       <c r="U12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,U4)</f>
         <v>00013</v>
       </c>
       <c r="V12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,V4)</f>
         <v>000013</v>
       </c>
       <c r="W12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,W4)</f>
         <v>0000013</v>
       </c>
       <c r="X12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,X4)</f>
         <v>00000013</v>
       </c>
       <c r="Y12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,Y4)</f>
         <v>000000013</v>
       </c>
       <c r="Z12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O12,Z4)</f>
         <v>0000000013</v>
       </c>
       <c r="AA12" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC12" s="14">
+        <f>DEC2OCT(O12,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC12" s="12">
         <v>11</v>
       </c>
       <c r="AD12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC12,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AE4)</f>
         <v>B</v>
       </c>
       <c r="AF12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AF4)</f>
         <v>0B</v>
       </c>
       <c r="AG12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AG4)</f>
         <v>00B</v>
       </c>
       <c r="AH12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AH4)</f>
         <v>000B</v>
       </c>
       <c r="AI12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AI4)</f>
         <v>0000B</v>
       </c>
       <c r="AJ12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AJ4)</f>
         <v>00000B</v>
       </c>
       <c r="AK12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AK4)</f>
         <v>000000B</v>
       </c>
       <c r="AL12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AL4)</f>
         <v>0000000B</v>
       </c>
       <c r="AM12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AM4)</f>
         <v>00000000B</v>
       </c>
       <c r="AN12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AN4)</f>
         <v>000000000B</v>
       </c>
       <c r="AO12" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC12,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10901,153 +10927,153 @@
         <v>12</v>
       </c>
       <c r="B13" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A13,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C13" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D13" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E13" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,F4)</f>
         <v>1100</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,G4)</f>
         <v>01100</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,H4)</f>
         <v>001100</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,I4)</f>
         <v>0001100</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,J4)</f>
         <v>00001100</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,K4)</f>
         <v>000001100</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,L4)</f>
         <v>0000001100</v>
       </c>
       <c r="M13" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A13,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O13" s="11">
         <v>12</v>
       </c>
       <c r="P13" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O13,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q13" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,R4)</f>
         <v>14</v>
       </c>
       <c r="S13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,S4)</f>
         <v>014</v>
       </c>
       <c r="T13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,T4)</f>
         <v>0014</v>
       </c>
       <c r="U13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,U4)</f>
         <v>00014</v>
       </c>
       <c r="V13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,V4)</f>
         <v>000014</v>
       </c>
       <c r="W13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,W4)</f>
         <v>0000014</v>
       </c>
       <c r="X13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,X4)</f>
         <v>00000014</v>
       </c>
       <c r="Y13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,Y4)</f>
         <v>000000014</v>
       </c>
       <c r="Z13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O13,Z4)</f>
         <v>0000000014</v>
       </c>
       <c r="AA13" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC13" s="14">
+        <f>DEC2OCT(O13,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC13" s="12">
         <v>12</v>
       </c>
       <c r="AD13" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC13,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AE4)</f>
         <v>C</v>
       </c>
       <c r="AF13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AF4)</f>
         <v>0C</v>
       </c>
       <c r="AG13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AG4)</f>
         <v>00C</v>
       </c>
       <c r="AH13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AH4)</f>
         <v>000C</v>
       </c>
       <c r="AI13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AI4)</f>
         <v>0000C</v>
       </c>
       <c r="AJ13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AJ4)</f>
         <v>00000C</v>
       </c>
       <c r="AK13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AK4)</f>
         <v>000000C</v>
       </c>
       <c r="AL13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AL4)</f>
         <v>0000000C</v>
       </c>
       <c r="AM13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AM4)</f>
         <v>00000000C</v>
       </c>
       <c r="AN13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AN4)</f>
         <v>000000000C</v>
       </c>
       <c r="AO13" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC13,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -11056,153 +11082,153 @@
         <v>13</v>
       </c>
       <c r="B14" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A14,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C14" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D14" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E14" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,F4)</f>
         <v>1101</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,G4)</f>
         <v>01101</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,H4)</f>
         <v>001101</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,I4)</f>
         <v>0001101</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,J4)</f>
         <v>00001101</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,K4)</f>
         <v>000001101</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,L4)</f>
         <v>0000001101</v>
       </c>
       <c r="M14" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A14,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O14" s="11">
         <v>13</v>
       </c>
       <c r="P14" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O14,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q14" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,R4)</f>
         <v>15</v>
       </c>
       <c r="S14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,S4)</f>
         <v>015</v>
       </c>
       <c r="T14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,T4)</f>
         <v>0015</v>
       </c>
       <c r="U14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,U4)</f>
         <v>00015</v>
       </c>
       <c r="V14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,V4)</f>
         <v>000015</v>
       </c>
       <c r="W14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,W4)</f>
         <v>0000015</v>
       </c>
       <c r="X14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,X4)</f>
         <v>00000015</v>
       </c>
       <c r="Y14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,Y4)</f>
         <v>000000015</v>
       </c>
       <c r="Z14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O14,Z4)</f>
         <v>0000000015</v>
       </c>
       <c r="AA14" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC14" s="14">
+        <f>DEC2OCT(O14,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC14" s="12">
         <v>13</v>
       </c>
       <c r="AD14" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC14,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AE4)</f>
         <v>D</v>
       </c>
       <c r="AF14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AF4)</f>
         <v>0D</v>
       </c>
       <c r="AG14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AG4)</f>
         <v>00D</v>
       </c>
       <c r="AH14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AH4)</f>
         <v>000D</v>
       </c>
       <c r="AI14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AI4)</f>
         <v>0000D</v>
       </c>
       <c r="AJ14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AJ4)</f>
         <v>00000D</v>
       </c>
       <c r="AK14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AK4)</f>
         <v>000000D</v>
       </c>
       <c r="AL14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AL4)</f>
         <v>0000000D</v>
       </c>
       <c r="AM14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AM4)</f>
         <v>00000000D</v>
       </c>
       <c r="AN14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AN4)</f>
         <v>000000000D</v>
       </c>
       <c r="AO14" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC14,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -11211,153 +11237,153 @@
         <v>-11</v>
       </c>
       <c r="B15" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A15,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,C4)</f>
         <v>1111110101</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,D4)</f>
         <v>1111110101</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,E4)</f>
         <v>1111110101</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,F4)</f>
         <v>1111110101</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,G4)</f>
         <v>1111110101</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,H4)</f>
         <v>1111110101</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,I4)</f>
         <v>1111110101</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,J4)</f>
         <v>1111110101</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,K4)</f>
         <v>1111110101</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,L4)</f>
         <v>1111110101</v>
       </c>
       <c r="M15" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A15,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O15" s="11">
         <v>-11</v>
       </c>
       <c r="P15" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O15,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,Q4)</f>
         <v>7777777765</v>
       </c>
       <c r="R15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,R4)</f>
         <v>7777777765</v>
       </c>
       <c r="S15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,S4)</f>
         <v>7777777765</v>
       </c>
       <c r="T15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,T4)</f>
         <v>7777777765</v>
       </c>
       <c r="U15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,U4)</f>
         <v>7777777765</v>
       </c>
       <c r="V15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,V4)</f>
         <v>7777777765</v>
       </c>
       <c r="W15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,W4)</f>
         <v>7777777765</v>
       </c>
       <c r="X15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,X4)</f>
         <v>7777777765</v>
       </c>
       <c r="Y15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,Y4)</f>
         <v>7777777765</v>
       </c>
       <c r="Z15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O15,Z4)</f>
         <v>7777777765</v>
       </c>
       <c r="AA15" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC15" s="14">
+        <f>DEC2OCT(O15,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC15" s="12">
         <v>-11</v>
       </c>
       <c r="AD15" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC15,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AE4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AF15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AF4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AG15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AG4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AH15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AH4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AI15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AI4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AJ15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AJ4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AK15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AK4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AL15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AL4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AM15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AM4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AN15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AN4)</f>
         <v>FFFFFFFFF5</v>
       </c>
       <c r="AO15" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC15,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -11366,153 +11392,153 @@
         <v>-12</v>
       </c>
       <c r="B16" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A16,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,C4)</f>
         <v>1111110100</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,D4)</f>
         <v>1111110100</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,E4)</f>
         <v>1111110100</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,F4)</f>
         <v>1111110100</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,G4)</f>
         <v>1111110100</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,H4)</f>
         <v>1111110100</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,I4)</f>
         <v>1111110100</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,J4)</f>
         <v>1111110100</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,K4)</f>
         <v>1111110100</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,L4)</f>
         <v>1111110100</v>
       </c>
       <c r="M16" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A16,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O16" s="11">
         <v>-12</v>
       </c>
       <c r="P16" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O16,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,Q4)</f>
         <v>7777777764</v>
       </c>
       <c r="R16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,R4)</f>
         <v>7777777764</v>
       </c>
       <c r="S16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,S4)</f>
         <v>7777777764</v>
       </c>
       <c r="T16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,T4)</f>
         <v>7777777764</v>
       </c>
       <c r="U16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,U4)</f>
         <v>7777777764</v>
       </c>
       <c r="V16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,V4)</f>
         <v>7777777764</v>
       </c>
       <c r="W16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,W4)</f>
         <v>7777777764</v>
       </c>
       <c r="X16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,X4)</f>
         <v>7777777764</v>
       </c>
       <c r="Y16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,Y4)</f>
         <v>7777777764</v>
       </c>
       <c r="Z16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O16,Z4)</f>
         <v>7777777764</v>
       </c>
       <c r="AA16" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC16" s="14">
+        <f>DEC2OCT(O16,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC16" s="12">
         <v>-12</v>
       </c>
       <c r="AD16" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC16,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AE4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AF16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AF4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AG16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AG4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AH16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AH4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AI16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AI4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AJ16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AJ4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AK16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AK4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AL16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AL4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AM16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AM4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AN16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AN4)</f>
         <v>FFFFFFFFF4</v>
       </c>
       <c r="AO16" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC16,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -11521,153 +11547,153 @@
         <v>-13</v>
       </c>
       <c r="B17" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A17,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,C4)</f>
         <v>1111110011</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,D4)</f>
         <v>1111110011</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,E4)</f>
         <v>1111110011</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,F4)</f>
         <v>1111110011</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,G4)</f>
         <v>1111110011</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,H4)</f>
         <v>1111110011</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,I4)</f>
         <v>1111110011</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,J4)</f>
         <v>1111110011</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,K4)</f>
         <v>1111110011</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,L4)</f>
         <v>1111110011</v>
       </c>
       <c r="M17" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A17,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O17" s="11">
         <v>-13</v>
       </c>
       <c r="P17" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O17,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,Q4)</f>
         <v>7777777763</v>
       </c>
       <c r="R17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,R4)</f>
         <v>7777777763</v>
       </c>
       <c r="S17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,S4)</f>
         <v>7777777763</v>
       </c>
       <c r="T17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,T4)</f>
         <v>7777777763</v>
       </c>
       <c r="U17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,U4)</f>
         <v>7777777763</v>
       </c>
       <c r="V17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,V4)</f>
         <v>7777777763</v>
       </c>
       <c r="W17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,W4)</f>
         <v>7777777763</v>
       </c>
       <c r="X17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,X4)</f>
         <v>7777777763</v>
       </c>
       <c r="Y17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,Y4)</f>
         <v>7777777763</v>
       </c>
       <c r="Z17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O17,Z4)</f>
         <v>7777777763</v>
       </c>
       <c r="AA17" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC17" s="14">
+        <f>DEC2OCT(O17,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC17" s="12">
         <v>-13</v>
       </c>
       <c r="AD17" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC17,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AE4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AF17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AF4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AG17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AG4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AH17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AH4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AI17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AI4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AJ17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AJ4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AK17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AK4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AL17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AL4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AM17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AM4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AN17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AN4)</f>
         <v>FFFFFFFFF3</v>
       </c>
       <c r="AO17" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC17,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -11676,153 +11702,153 @@
         <v>101</v>
       </c>
       <c r="B18" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A18,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C18" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D18" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E18" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F18" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,F4)</f>
         <v>#NUM!</v>
       </c>
       <c r="G18" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,G4)</f>
         <v>#NUM!</v>
       </c>
       <c r="H18" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,H4)</f>
         <v>#NUM!</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,I4)</f>
         <v>1100101</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,J4)</f>
         <v>01100101</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,K4)</f>
         <v>001100101</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,L4)</f>
         <v>0001100101</v>
       </c>
       <c r="M18" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A18,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O18" s="11">
         <v>10000</v>
       </c>
       <c r="P18" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O18,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q18" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R18" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,R4)</f>
         <v>#NUM!</v>
       </c>
       <c r="S18" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,S4)</f>
         <v>#NUM!</v>
       </c>
       <c r="T18" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,T4)</f>
         <v>#NUM!</v>
       </c>
       <c r="U18" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,U4)</f>
         <v>23420</v>
       </c>
       <c r="V18" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,V4)</f>
         <v>023420</v>
       </c>
       <c r="W18" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,W4)</f>
         <v>0023420</v>
       </c>
       <c r="X18" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,X4)</f>
         <v>00023420</v>
       </c>
       <c r="Y18" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,Y4)</f>
         <v>000023420</v>
       </c>
       <c r="Z18" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O18,Z4)</f>
         <v>0000023420</v>
       </c>
       <c r="AA18" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC18" s="14">
+        <f>DEC2OCT(O18,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC18" s="12">
         <v>1000000</v>
       </c>
       <c r="AD18" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC18,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE18" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AE4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AF18" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AF4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AG18" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AG4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AH18" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AH4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AI18" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AI4)</f>
         <v>F4240</v>
       </c>
       <c r="AJ18" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AJ4)</f>
         <v>0F4240</v>
       </c>
       <c r="AK18" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AK4)</f>
         <v>00F4240</v>
       </c>
       <c r="AL18" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AL4)</f>
         <v>000F4240</v>
       </c>
       <c r="AM18" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AM4)</f>
         <v>0000F4240</v>
       </c>
       <c r="AN18" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AN4)</f>
         <v>00000F4240</v>
       </c>
       <c r="AO18" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC18,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -11831,153 +11857,153 @@
         <v>102</v>
       </c>
       <c r="B19" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A19,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C19" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D19" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E19" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F19" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,F4)</f>
         <v>#NUM!</v>
       </c>
       <c r="G19" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,G4)</f>
         <v>#NUM!</v>
       </c>
       <c r="H19" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,H4)</f>
         <v>#NUM!</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,I4)</f>
         <v>1100110</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,J4)</f>
         <v>01100110</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,K4)</f>
         <v>001100110</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,L4)</f>
         <v>0001100110</v>
       </c>
       <c r="M19" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A19,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O19" s="11">
         <v>10001</v>
       </c>
       <c r="P19" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O19,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q19" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R19" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,R4)</f>
         <v>#NUM!</v>
       </c>
       <c r="S19" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,S4)</f>
         <v>#NUM!</v>
       </c>
       <c r="T19" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,T4)</f>
         <v>#NUM!</v>
       </c>
       <c r="U19" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,U4)</f>
         <v>23421</v>
       </c>
       <c r="V19" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,V4)</f>
         <v>023421</v>
       </c>
       <c r="W19" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,W4)</f>
         <v>0023421</v>
       </c>
       <c r="X19" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,X4)</f>
         <v>00023421</v>
       </c>
       <c r="Y19" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,Y4)</f>
         <v>000023421</v>
       </c>
       <c r="Z19" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O19,Z4)</f>
         <v>0000023421</v>
       </c>
       <c r="AA19" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC19" s="14">
+        <f>DEC2OCT(O19,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC19" s="12">
         <v>1000001</v>
       </c>
       <c r="AD19" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC19,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE19" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AE4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AF19" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AF4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AG19" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AG4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AH19" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AH4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AI19" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AI4)</f>
         <v>F4241</v>
       </c>
       <c r="AJ19" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AJ4)</f>
         <v>0F4241</v>
       </c>
       <c r="AK19" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AK4)</f>
         <v>00F4241</v>
       </c>
       <c r="AL19" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AL4)</f>
         <v>000F4241</v>
       </c>
       <c r="AM19" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AM4)</f>
         <v>0000F4241</v>
       </c>
       <c r="AN19" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AN4)</f>
         <v>00000F4241</v>
       </c>
       <c r="AO19" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC19,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -11986,153 +12012,153 @@
         <v>103</v>
       </c>
       <c r="B20" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A20,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C20" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D20" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E20" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F20" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,F4)</f>
         <v>#NUM!</v>
       </c>
       <c r="G20" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,G4)</f>
         <v>#NUM!</v>
       </c>
       <c r="H20" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,H4)</f>
         <v>#NUM!</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,I4)</f>
         <v>1100111</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,J4)</f>
         <v>01100111</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,K4)</f>
         <v>001100111</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,L4)</f>
         <v>0001100111</v>
       </c>
       <c r="M20" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A20,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O20" s="11">
         <v>10002</v>
       </c>
       <c r="P20" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O20,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q20" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R20" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,R4)</f>
         <v>#NUM!</v>
       </c>
       <c r="S20" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,S4)</f>
         <v>#NUM!</v>
       </c>
       <c r="T20" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,T4)</f>
         <v>#NUM!</v>
       </c>
       <c r="U20" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,U4)</f>
         <v>23422</v>
       </c>
       <c r="V20" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,V4)</f>
         <v>023422</v>
       </c>
       <c r="W20" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,W4)</f>
         <v>0023422</v>
       </c>
       <c r="X20" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,X4)</f>
         <v>00023422</v>
       </c>
       <c r="Y20" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,Y4)</f>
         <v>000023422</v>
       </c>
       <c r="Z20" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O20,Z4)</f>
         <v>0000023422</v>
       </c>
       <c r="AA20" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC20" s="14">
+        <f>DEC2OCT(O20,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC20" s="12">
         <v>1000002</v>
       </c>
       <c r="AD20" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC20,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE20" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AE4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AF20" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AF4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AG20" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AG4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AH20" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AH4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AI20" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AI4)</f>
         <v>F4242</v>
       </c>
       <c r="AJ20" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AJ4)</f>
         <v>0F4242</v>
       </c>
       <c r="AK20" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AK4)</f>
         <v>00F4242</v>
       </c>
       <c r="AL20" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AL4)</f>
         <v>000F4242</v>
       </c>
       <c r="AM20" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AM4)</f>
         <v>0000F4242</v>
       </c>
       <c r="AN20" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AN4)</f>
         <v>00000F4242</v>
       </c>
       <c r="AO20" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(AC20,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -12141,153 +12167,153 @@
         <v>-101</v>
       </c>
       <c r="B21" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A21,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,C4)</f>
         <v>1110011011</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,D4)</f>
         <v>1110011011</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,E4)</f>
         <v>1110011011</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,F4)</f>
         <v>1110011011</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,G4)</f>
         <v>1110011011</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,H4)</f>
         <v>1110011011</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,I4)</f>
         <v>1110011011</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,J4)</f>
         <v>1110011011</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,K4)</f>
         <v>1110011011</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,L4)</f>
         <v>1110011011</v>
       </c>
       <c r="M21" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A21,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O21" s="11">
         <v>-10000</v>
       </c>
       <c r="P21" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O21,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,Q4)</f>
         <v>7777754360</v>
       </c>
       <c r="R21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,R4)</f>
         <v>7777754360</v>
       </c>
       <c r="S21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,S4)</f>
         <v>7777754360</v>
       </c>
       <c r="T21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,T4)</f>
         <v>7777754360</v>
       </c>
       <c r="U21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,U4)</f>
         <v>7777754360</v>
       </c>
       <c r="V21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,V4)</f>
         <v>7777754360</v>
       </c>
       <c r="W21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,W4)</f>
         <v>7777754360</v>
       </c>
       <c r="X21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,X4)</f>
         <v>7777754360</v>
       </c>
       <c r="Y21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,Y4)</f>
         <v>7777754360</v>
       </c>
       <c r="Z21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O21,Z4)</f>
         <v>7777754360</v>
       </c>
       <c r="AA21" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC21" s="14">
+        <f>DEC2OCT(O21,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC21" s="12">
         <v>-1000000</v>
       </c>
       <c r="AD21" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AE4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AF21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AF4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AG21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AG4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AH21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AH4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AI21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AI4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AJ21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AJ4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AK21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AK4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AL21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AL4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AM21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AM4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AN21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AN4)</f>
         <v>FFFFF0BDC0</v>
       </c>
       <c r="AO21" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC21,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -12296,153 +12322,153 @@
         <v>-102</v>
       </c>
       <c r="B22" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A22,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,C4)</f>
         <v>1110011010</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,D4)</f>
         <v>1110011010</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,E4)</f>
         <v>1110011010</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,F4)</f>
         <v>1110011010</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,G4)</f>
         <v>1110011010</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,H4)</f>
         <v>1110011010</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,I4)</f>
         <v>1110011010</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,J4)</f>
         <v>1110011010</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,K4)</f>
         <v>1110011010</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,L4)</f>
         <v>1110011010</v>
       </c>
       <c r="M22" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A22,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O22" s="11">
         <v>-10001</v>
       </c>
       <c r="P22" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O22,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,Q4)</f>
         <v>7777754357</v>
       </c>
       <c r="R22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,R4)</f>
         <v>7777754357</v>
       </c>
       <c r="S22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,S4)</f>
         <v>7777754357</v>
       </c>
       <c r="T22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,T4)</f>
         <v>7777754357</v>
       </c>
       <c r="U22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,U4)</f>
         <v>7777754357</v>
       </c>
       <c r="V22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,V4)</f>
         <v>7777754357</v>
       </c>
       <c r="W22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,W4)</f>
         <v>7777754357</v>
       </c>
       <c r="X22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,X4)</f>
         <v>7777754357</v>
       </c>
       <c r="Y22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,Y4)</f>
         <v>7777754357</v>
       </c>
       <c r="Z22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O22,Z4)</f>
         <v>7777754357</v>
       </c>
       <c r="AA22" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC22" s="14">
+        <f>DEC2OCT(O22,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC22" s="12">
         <v>-1000001</v>
       </c>
       <c r="AD22" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AE4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AF22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AF4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AG22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AG4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AH22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AH4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AI22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AI4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AJ22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AJ4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AK22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AK4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AL22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AL4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AM22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AM4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AN22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AN4)</f>
         <v>FFFFF0BDBF</v>
       </c>
       <c r="AO22" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC22,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -12451,153 +12477,153 @@
         <v>-103</v>
       </c>
       <c r="B23" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A23,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,C4)</f>
         <v>1110011001</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,D4)</f>
         <v>1110011001</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,E4)</f>
         <v>1110011001</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,F4)</f>
         <v>1110011001</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,G4)</f>
         <v>1110011001</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,H4)</f>
         <v>1110011001</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,I4)</f>
         <v>1110011001</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,J4)</f>
         <v>1110011001</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,K4)</f>
         <v>1110011001</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,L4)</f>
         <v>1110011001</v>
       </c>
       <c r="M23" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A23,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O23" s="11">
         <v>-10002</v>
       </c>
       <c r="P23" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O23,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,Q4)</f>
         <v>7777754356</v>
       </c>
       <c r="R23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,R4)</f>
         <v>7777754356</v>
       </c>
       <c r="S23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,S4)</f>
         <v>7777754356</v>
       </c>
       <c r="T23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,T4)</f>
         <v>7777754356</v>
       </c>
       <c r="U23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,U4)</f>
         <v>7777754356</v>
       </c>
       <c r="V23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,V4)</f>
         <v>7777754356</v>
       </c>
       <c r="W23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,W4)</f>
         <v>7777754356</v>
       </c>
       <c r="X23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,X4)</f>
         <v>7777754356</v>
       </c>
       <c r="Y23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,Y4)</f>
         <v>7777754356</v>
       </c>
       <c r="Z23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O23,Z4)</f>
         <v>7777754356</v>
       </c>
       <c r="AA23" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC23" s="14">
+        <f>DEC2OCT(O23,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC23" s="12">
         <v>-1000002</v>
       </c>
       <c r="AD23" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AE4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AF23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AF4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AG23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AG4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AH23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AH4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AI23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AI4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AJ23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AJ4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AK23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AK4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AL23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AL4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AM23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AM4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AN23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AN4)</f>
         <v>FFFFF0BDBE</v>
       </c>
       <c r="AO23" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC23,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -12606,51 +12632,51 @@
         <v>510</v>
       </c>
       <c r="B24" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A24,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C24" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D24" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E24" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F24" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,F4)</f>
         <v>#NUM!</v>
       </c>
       <c r="G24" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,G4)</f>
         <v>#NUM!</v>
       </c>
       <c r="H24" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,H4)</f>
         <v>#NUM!</v>
       </c>
       <c r="I24" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,I4)</f>
         <v>#NUM!</v>
       </c>
       <c r="J24" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,J4)</f>
         <v>#NUM!</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,K4)</f>
         <v>111111110</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,L4)</f>
         <v>0111111110</v>
       </c>
       <c r="M24" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A24,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O24" s="11">
@@ -12658,103 +12684,103 @@
         <v>536870910</v>
       </c>
       <c r="P24" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O24,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q24" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R24" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,R4)</f>
         <v>#NUM!</v>
       </c>
       <c r="S24" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,S4)</f>
         <v>#NUM!</v>
       </c>
       <c r="T24" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,T4)</f>
         <v>#NUM!</v>
       </c>
       <c r="U24" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,U4)</f>
         <v>#NUM!</v>
       </c>
       <c r="V24" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,V4)</f>
         <v>#NUM!</v>
       </c>
       <c r="W24" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,W4)</f>
         <v>#NUM!</v>
       </c>
       <c r="X24" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,X4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Y24" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,Y4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Z24" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O24,Z4)</f>
         <v>3777777776</v>
       </c>
       <c r="AA24" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC24" s="14">
+        <f>DEC2OCT(O24,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC24" s="12">
         <f>2^39 -2</f>
         <v>549755813886</v>
       </c>
       <c r="AD24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AE4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AF24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AF4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AG24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AG4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AH24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AH4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AI24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AI4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AJ24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AJ4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AK24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AK4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AL24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AL4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AM4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AN24" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AN4)</f>
         <v>7FFFFFFFFE</v>
       </c>
       <c r="AO24" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC24,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -12763,51 +12789,51 @@
         <v>511</v>
       </c>
       <c r="B25" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A25,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C25" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D25" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E25" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F25" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,F4)</f>
         <v>#NUM!</v>
       </c>
       <c r="G25" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,G4)</f>
         <v>#NUM!</v>
       </c>
       <c r="H25" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,H4)</f>
         <v>#NUM!</v>
       </c>
       <c r="I25" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,I4)</f>
         <v>#NUM!</v>
       </c>
       <c r="J25" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,J4)</f>
         <v>#NUM!</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,K4)</f>
         <v>111111111</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,L4)</f>
         <v>0111111111</v>
       </c>
       <c r="M25" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A25,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O25" s="11">
@@ -12815,103 +12841,103 @@
         <v>536870911</v>
       </c>
       <c r="P25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O25,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q25" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R25" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,R4)</f>
         <v>#NUM!</v>
       </c>
       <c r="S25" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,S4)</f>
         <v>#NUM!</v>
       </c>
       <c r="T25" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,T4)</f>
         <v>#NUM!</v>
       </c>
       <c r="U25" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,U4)</f>
         <v>#NUM!</v>
       </c>
       <c r="V25" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,V4)</f>
         <v>#NUM!</v>
       </c>
       <c r="W25" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,W4)</f>
         <v>#NUM!</v>
       </c>
       <c r="X25" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,X4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Y25" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,Y4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Z25" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O25,Z4)</f>
         <v>3777777777</v>
       </c>
       <c r="AA25" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC25" s="14">
+        <f>DEC2OCT(O25,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC25" s="12">
         <f>AC24+1</f>
         <v>549755813887</v>
       </c>
       <c r="AD25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AE4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AF25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AF4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AG25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AG4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AH25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AH4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AI25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AI4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AJ25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AJ4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AK25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AK4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AL25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AL4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AM4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AN25" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AN4)</f>
         <v>7FFFFFFFFF</v>
       </c>
       <c r="AO25" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC25,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -12920,155 +12946,155 @@
         <v>512</v>
       </c>
       <c r="B26" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A26,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,F4)</f>
         <v>#NUM!</v>
       </c>
       <c r="G26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,G4)</f>
         <v>#NUM!</v>
       </c>
       <c r="H26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,H4)</f>
         <v>#NUM!</v>
       </c>
       <c r="I26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,I4)</f>
         <v>#NUM!</v>
       </c>
       <c r="J26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,J4)</f>
         <v>#NUM!</v>
       </c>
       <c r="K26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,K4)</f>
         <v>#NUM!</v>
       </c>
       <c r="L26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,L4)</f>
         <v>#NUM!</v>
       </c>
       <c r="M26" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A26,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" ref="O26:O27" si="7">O25+1</f>
+        <f t="shared" ref="O26:O27" si="0">O25+1</f>
         <v>536870912</v>
       </c>
       <c r="P26" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O26,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,R4)</f>
         <v>#NUM!</v>
       </c>
       <c r="S26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,S4)</f>
         <v>#NUM!</v>
       </c>
       <c r="T26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,T4)</f>
         <v>#NUM!</v>
       </c>
       <c r="U26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,U4)</f>
         <v>#NUM!</v>
       </c>
       <c r="V26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,V4)</f>
         <v>#NUM!</v>
       </c>
       <c r="W26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,W4)</f>
         <v>#NUM!</v>
       </c>
       <c r="X26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,X4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Y26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,Y4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Z26" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O26,Z4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AA26" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC26" s="14">
-        <f t="shared" ref="AC26:AC27" si="8">AC25+1</f>
+        <f>DEC2OCT(O26,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC26" s="12">
+        <f t="shared" ref="AC26:AC27" si="1">AC25+1</f>
         <v>549755813888</v>
       </c>
       <c r="AD26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AE4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AF26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AF4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AG26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AG4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AH26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AH4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AI26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AI4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AJ26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AJ4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AK26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AK4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AL26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AL4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AM4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AN26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AN4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AO26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC26,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13077,155 +13103,155 @@
         <v>513</v>
       </c>
       <c r="B27" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A27,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,C4)</f>
         <v>#NUM!</v>
       </c>
       <c r="D27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,D4)</f>
         <v>#NUM!</v>
       </c>
       <c r="E27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,E4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,F4)</f>
         <v>#NUM!</v>
       </c>
       <c r="G27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,G4)</f>
         <v>#NUM!</v>
       </c>
       <c r="H27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,H4)</f>
         <v>#NUM!</v>
       </c>
       <c r="I27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,I4)</f>
         <v>#NUM!</v>
       </c>
       <c r="J27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,J4)</f>
         <v>#NUM!</v>
       </c>
       <c r="K27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,K4)</f>
         <v>#NUM!</v>
       </c>
       <c r="L27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,L4)</f>
         <v>#NUM!</v>
       </c>
       <c r="M27" t="e">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A27,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>536870913</v>
       </c>
       <c r="P27" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O27,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,Q4)</f>
         <v>#NUM!</v>
       </c>
       <c r="R27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,R4)</f>
         <v>#NUM!</v>
       </c>
       <c r="S27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,S4)</f>
         <v>#NUM!</v>
       </c>
       <c r="T27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,T4)</f>
         <v>#NUM!</v>
       </c>
       <c r="U27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,U4)</f>
         <v>#NUM!</v>
       </c>
       <c r="V27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,V4)</f>
         <v>#NUM!</v>
       </c>
       <c r="W27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,W4)</f>
         <v>#NUM!</v>
       </c>
       <c r="X27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,X4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Y27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,Y4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Z27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O27,Z4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AA27" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC27" s="14">
-        <f t="shared" si="8"/>
+        <f>DEC2OCT(O27,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC27" s="12">
+        <f t="shared" si="1"/>
         <v>549755813889</v>
       </c>
       <c r="AD27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AE4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AF27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AF4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AG27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AG4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AH27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AH4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AI27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AI4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AJ27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AJ4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AK27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AK4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AL27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AL4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AM4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AN27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AN4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AO27" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC27,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13234,51 +13260,51 @@
         <v>-510</v>
       </c>
       <c r="B28" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A28,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A28,C4)</f>
         <v>1000000010</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2BIN(A28,D4)</f>
         <v>1000000010</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" ref="E28:M31" si="9">DEC2BIN($A28,E$4)</f>
+        <f>DEC2BIN(A28,E4)</f>
         <v>1000000010</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A28,F4)</f>
         <v>1000000010</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A28,G4)</f>
         <v>1000000010</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A28,H4)</f>
         <v>1000000010</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A28,I4)</f>
         <v>1000000010</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A28,J4)</f>
         <v>1000000010</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A28,K4)</f>
         <v>1000000010</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A28,L4)</f>
         <v>1000000010</v>
       </c>
       <c r="M28" t="e">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A28,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O28" s="11">
@@ -13286,103 +13312,103 @@
         <v>-536870910</v>
       </c>
       <c r="P28" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O28,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,Q4)</f>
         <v>4000000002</v>
       </c>
       <c r="R28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,R4)</f>
         <v>4000000002</v>
       </c>
       <c r="S28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,S4)</f>
         <v>4000000002</v>
       </c>
       <c r="T28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,T4)</f>
         <v>4000000002</v>
       </c>
       <c r="U28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,U4)</f>
         <v>4000000002</v>
       </c>
       <c r="V28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,V4)</f>
         <v>4000000002</v>
       </c>
       <c r="W28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,W4)</f>
         <v>4000000002</v>
       </c>
       <c r="X28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,X4)</f>
         <v>4000000002</v>
       </c>
       <c r="Y28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,Y4)</f>
         <v>4000000002</v>
       </c>
       <c r="Z28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O28,Z4)</f>
         <v>4000000002</v>
       </c>
       <c r="AA28" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC28" s="14">
+        <f>DEC2OCT(O28,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC28" s="12">
         <f>-AC24</f>
         <v>-549755813886</v>
       </c>
       <c r="AD28" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AE4)</f>
         <v>8000000002</v>
       </c>
       <c r="AF28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AF4)</f>
         <v>8000000002</v>
       </c>
       <c r="AG28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AG4)</f>
         <v>8000000002</v>
       </c>
       <c r="AH28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AH4)</f>
         <v>8000000002</v>
       </c>
       <c r="AI28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AI4)</f>
         <v>8000000002</v>
       </c>
       <c r="AJ28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AJ4)</f>
         <v>8000000002</v>
       </c>
       <c r="AK28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AK4)</f>
         <v>8000000002</v>
       </c>
       <c r="AL28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AL4)</f>
         <v>8000000002</v>
       </c>
       <c r="AM28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AM4)</f>
         <v>8000000002</v>
       </c>
       <c r="AN28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AN4)</f>
         <v>8000000002</v>
       </c>
       <c r="AO28" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC28,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13391,155 +13417,155 @@
         <v>-511</v>
       </c>
       <c r="B29" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A29,B4)</f>
         <v>#NUM!</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A29,C4)</f>
         <v>1000000001</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="3"/>
+        <f>DEC2BIN(A29,D4)</f>
         <v>1000000001</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A29,E4)</f>
         <v>1000000001</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A29,F4)</f>
         <v>1000000001</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A29,G4)</f>
         <v>1000000001</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A29,H4)</f>
         <v>1000000001</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A29,I4)</f>
         <v>1000000001</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A29,J4)</f>
         <v>1000000001</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A29,K4)</f>
         <v>1000000001</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A29,L4)</f>
         <v>1000000001</v>
       </c>
       <c r="M29" t="e">
-        <f t="shared" si="9"/>
+        <f>DEC2BIN(A29,M4)</f>
         <v>#NUM!</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" ref="O29:O31" si="10">-O25</f>
+        <f t="shared" ref="O29:O31" si="2">-O25</f>
         <v>-536870911</v>
       </c>
       <c r="P29" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>DEC2OCT(O29,P4)</f>
         <v>#NUM!</v>
       </c>
       <c r="Q29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,Q4)</f>
         <v>4000000001</v>
       </c>
       <c r="R29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,R4)</f>
         <v>4000000001</v>
       </c>
       <c r="S29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,S4)</f>
         <v>4000000001</v>
       </c>
       <c r="T29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,T4)</f>
         <v>4000000001</v>
       </c>
       <c r="U29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,U4)</f>
         <v>4000000001</v>
       </c>
       <c r="V29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,V4)</f>
         <v>4000000001</v>
       </c>
       <c r="W29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,W4)</f>
         <v>4000000001</v>
       </c>
       <c r="X29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,X4)</f>
         <v>4000000001</v>
       </c>
       <c r="Y29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,Y4)</f>
         <v>4000000001</v>
       </c>
       <c r="Z29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2OCT(O29,Z4)</f>
         <v>4000000001</v>
       </c>
       <c r="AA29" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC29" s="14">
-        <f t="shared" ref="AC29:AC31" si="11">-AC25</f>
+        <f>DEC2OCT(O29,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC29" s="12">
+        <f t="shared" ref="AC29:AC31" si="3">-AC25</f>
         <v>-549755813887</v>
       </c>
       <c r="AD29" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AE4)</f>
         <v>8000000001</v>
       </c>
       <c r="AF29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AF4)</f>
         <v>8000000001</v>
       </c>
       <c r="AG29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AG4)</f>
         <v>8000000001</v>
       </c>
       <c r="AH29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AH4)</f>
         <v>8000000001</v>
       </c>
       <c r="AI29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AI4)</f>
         <v>8000000001</v>
       </c>
       <c r="AJ29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AJ4)</f>
         <v>8000000001</v>
       </c>
       <c r="AK29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AK4)</f>
         <v>8000000001</v>
       </c>
       <c r="AL29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AL4)</f>
         <v>8000000001</v>
       </c>
       <c r="AM29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AM4)</f>
         <v>8000000001</v>
       </c>
       <c r="AN29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AN4)</f>
         <v>8000000001</v>
       </c>
       <c r="AO29" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC29,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13548,155 +13574,155 @@
         <v>-512</v>
       </c>
       <c r="B30" t="e">
+        <f>DEC2BIN(A30,B4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C30" t="str">
+        <f>DEC2BIN(A30,C4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="D30" t="str">
+        <f>DEC2BIN(A30,D4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="E30" t="str">
+        <f>DEC2BIN(A30,E4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="F30" t="str">
+        <f>DEC2BIN(A30,F4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="G30" t="str">
+        <f>DEC2BIN(A30,G4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="H30" t="str">
+        <f>DEC2BIN(A30,H4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="I30" t="str">
+        <f>DEC2BIN(A30,I4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="J30" t="str">
+        <f>DEC2BIN(A30,J4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="K30" t="str">
+        <f>DEC2BIN(A30,K4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="L30" t="str">
+        <f>DEC2BIN(A30,L4)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="M30" t="e">
+        <f>DEC2BIN(A30,M4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="2"/>
+        <v>-536870912</v>
+      </c>
+      <c r="P30" s="10" t="e">
+        <f>DEC2OCT(O30,P4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q30" s="10" t="str">
+        <f>DEC2OCT(O30,Q4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="R30" s="10" t="str">
+        <f>DEC2OCT(O30,R4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="S30" s="10" t="str">
+        <f>DEC2OCT(O30,S4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="T30" s="10" t="str">
+        <f>DEC2OCT(O30,T4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="U30" s="10" t="str">
+        <f>DEC2OCT(O30,U4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="V30" s="10" t="str">
+        <f>DEC2OCT(O30,V4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="W30" s="10" t="str">
+        <f>DEC2OCT(O30,W4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="X30" s="10" t="str">
+        <f>DEC2OCT(O30,X4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="Y30" s="10" t="str">
+        <f>DEC2OCT(O30,Y4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="Z30" s="10" t="str">
+        <f>DEC2OCT(O30,Z4)</f>
+        <v>4000000000</v>
+      </c>
+      <c r="AA30" s="10" t="e">
+        <f>DEC2OCT(O30,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC30" s="12">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="3"/>
-        <v>1000000000</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="3"/>
-        <v>1000000000</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="9"/>
-        <v>1000000000</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="9"/>
-        <v>1000000000</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="9"/>
-        <v>1000000000</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="9"/>
-        <v>1000000000</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="9"/>
-        <v>1000000000</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="9"/>
-        <v>1000000000</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="9"/>
-        <v>1000000000</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="9"/>
-        <v>1000000000</v>
-      </c>
-      <c r="M30" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O30" s="11">
-        <f t="shared" si="10"/>
-        <v>-536870912</v>
-      </c>
-      <c r="P30" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="R30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="S30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="T30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="U30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="V30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="W30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="X30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="Y30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="Z30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>4000000000</v>
-      </c>
-      <c r="AA30" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC30" s="14">
-        <f t="shared" si="11"/>
         <v>-549755813888</v>
       </c>
       <c r="AD30" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AE4)</f>
         <v>8000000000</v>
       </c>
       <c r="AF30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AF4)</f>
         <v>8000000000</v>
       </c>
       <c r="AG30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AG4)</f>
         <v>8000000000</v>
       </c>
       <c r="AH30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AH4)</f>
         <v>8000000000</v>
       </c>
       <c r="AI30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AI4)</f>
         <v>8000000000</v>
       </c>
       <c r="AJ30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AJ4)</f>
         <v>8000000000</v>
       </c>
       <c r="AK30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AK4)</f>
         <v>8000000000</v>
       </c>
       <c r="AL30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AL4)</f>
         <v>8000000000</v>
       </c>
       <c r="AM30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AM4)</f>
         <v>8000000000</v>
       </c>
       <c r="AN30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AN4)</f>
         <v>8000000000</v>
       </c>
       <c r="AO30" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC30,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13705,155 +13731,155 @@
         <v>-513</v>
       </c>
       <c r="B31" t="e">
+        <f>DEC2BIN(A31,B4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C31" t="e">
+        <f>DEC2BIN(A31,C4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D31" t="e">
+        <f>DEC2BIN(A31,D4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E31" t="e">
+        <f>DEC2BIN(A31,E4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F31" t="e">
+        <f>DEC2BIN(A31,F4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G31" t="e">
+        <f>DEC2BIN(A31,G4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H31" t="e">
+        <f>DEC2BIN(A31,H4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I31" t="e">
+        <f>DEC2BIN(A31,I4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J31" t="e">
+        <f>DEC2BIN(A31,J4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K31" t="e">
+        <f>DEC2BIN(A31,K4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L31" t="e">
+        <f>DEC2BIN(A31,L4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M31" t="e">
+        <f>DEC2BIN(A31,M4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="2"/>
+        <v>-536870913</v>
+      </c>
+      <c r="P31" s="10" t="e">
+        <f>DEC2OCT(O31,P4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q31" s="10" t="e">
+        <f>DEC2OCT(O31,Q4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="R31" s="10" t="e">
+        <f>DEC2OCT(O31,R4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S31" s="10" t="e">
+        <f>DEC2OCT(O31,S4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T31" s="10" t="e">
+        <f>DEC2OCT(O31,T4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U31" s="10" t="e">
+        <f>DEC2OCT(O31,U4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="V31" s="10" t="e">
+        <f>DEC2OCT(O31,V4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W31" s="10" t="e">
+        <f>DEC2OCT(O31,W4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X31" s="10" t="e">
+        <f>DEC2OCT(O31,X4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y31" s="10" t="e">
+        <f>DEC2OCT(O31,Y4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z31" s="10" t="e">
+        <f>DEC2OCT(O31,Z4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA31" s="10" t="e">
+        <f>DEC2OCT(O31,AA4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC31" s="12">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C31" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D31" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E31" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F31" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G31" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H31" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I31" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J31" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K31" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L31" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M31" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O31" s="11">
-        <f t="shared" si="10"/>
-        <v>-536870913</v>
-      </c>
-      <c r="P31" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="R31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC31" s="14">
-        <f t="shared" si="11"/>
         <v>-549755813889</v>
       </c>
       <c r="AD31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AD4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AE4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AF31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AF4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AG31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AG4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AH31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AH4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AI31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AI4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AJ31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AJ4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AK31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AK4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AL31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AL4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AM4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AN31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AN4)</f>
         <v>#NUM!</v>
       </c>
       <c r="AO31" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(AC31,AO4)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13945,4 +13971,957 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6502EA-E4C7-407D-A5DD-F91B4FE71DB5}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B2" t="str">
+        <f>BIN2OCT(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <f>BIN2DEC(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>BIN2HEX(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="str">
+        <f>OCT2BIN(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <f>OCT2DEC(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="str">
+        <f>OCT2HEX(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="str">
+        <f>DEC2BIN(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="10" t="str">
+        <f>DEC2OCT(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="str">
+        <f>DEC2HEX(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="str">
+        <f>HEX2BIN(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="str">
+        <f>HEX2OCT(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <f>HEX2DEC(A2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10" t="e">
+        <f>BIN2OCT(A3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" s="10" t="e">
+        <f>BIN2DEC(A3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" s="10" t="e">
+        <f>BIN2HEX(A3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" s="10" t="e">
+        <f>OCT2BIN(A3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" s="10" t="e">
+        <f>OCT2DEC(A3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" s="10" t="e">
+        <f>OCT2HEX(A3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" s="10" t="e">
+        <f>DEC2BIN(A3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" s="10" t="e">
+        <f>DEC2OCT(A3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" s="10" t="e">
+        <f>DEC2HEX(A3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="10" t="str">
+        <f>HEX2BIN(A3)</f>
+        <v>1010</v>
+      </c>
+      <c r="L3" s="10" t="str">
+        <f>HEX2OCT(A3)</f>
+        <v>12</v>
+      </c>
+      <c r="M3" s="10">
+        <f>HEX2DEC(A3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="10" t="e">
+        <f>BIN2OCT(A4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" s="10" t="e">
+        <f>BIN2DEC(A4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" s="10" t="e">
+        <f>BIN2HEX(A4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" s="10" t="e">
+        <f>OCT2BIN(A4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" s="10" t="e">
+        <f>OCT2DEC(A4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" s="10" t="e">
+        <f>OCT2HEX(A4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" s="10" t="e">
+        <f>DEC2BIN(A4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" s="10" t="e">
+        <f>DEC2OCT(A4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" s="10" t="e">
+        <f>DEC2HEX(A4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="10" t="str">
+        <f>HEX2BIN(A4)</f>
+        <v>1010</v>
+      </c>
+      <c r="L4" s="10" t="str">
+        <f>HEX2OCT(A4)</f>
+        <v>12</v>
+      </c>
+      <c r="M4" s="10">
+        <f>HEX2DEC(A4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="e">
+        <f>BIN2OCT(A5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" s="10" t="e">
+        <f>BIN2DEC(A5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" s="10" t="e">
+        <f>BIN2HEX(A5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" s="10" t="e">
+        <f>OCT2BIN(A5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" s="10" t="e">
+        <f>OCT2DEC(A5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" s="10" t="e">
+        <f>OCT2HEX(A5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" s="10" t="e">
+        <f>DEC2BIN(A5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" s="10" t="e">
+        <f>DEC2OCT(A5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" s="10" t="e">
+        <f>DEC2HEX(A5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f>HEX2BIN(A5)</f>
+        <v>1011</v>
+      </c>
+      <c r="L5" s="10" t="str">
+        <f>HEX2OCT(A5)</f>
+        <v>13</v>
+      </c>
+      <c r="M5" s="10">
+        <f>HEX2DEC(A5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10" t="e">
+        <f>BIN2OCT(A6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" s="10" t="e">
+        <f>BIN2DEC(A6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" s="10" t="e">
+        <f>BIN2HEX(A6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" s="10" t="e">
+        <f>OCT2BIN(A6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" s="10" t="e">
+        <f>OCT2DEC(A6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" s="10" t="e">
+        <f>OCT2HEX(A6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" s="10" t="e">
+        <f>DEC2BIN(A6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="10" t="e">
+        <f>DEC2OCT(A6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" s="10" t="e">
+        <f>DEC2HEX(A6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f>HEX2BIN(A6)</f>
+        <v>1011</v>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f>HEX2OCT(A6)</f>
+        <v>13</v>
+      </c>
+      <c r="M6" s="10">
+        <f>HEX2DEC(A6)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10" t="e">
+        <f>BIN2OCT(A7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" s="10" t="e">
+        <f>BIN2DEC(A7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" s="10" t="e">
+        <f>BIN2HEX(A7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" s="10" t="e">
+        <f>OCT2BIN(A7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" s="10" t="e">
+        <f>OCT2DEC(A7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" s="10" t="e">
+        <f>OCT2HEX(A7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" s="10" t="e">
+        <f>DEC2BIN(A7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="10" t="e">
+        <f>DEC2OCT(A7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" s="10" t="e">
+        <f>DEC2HEX(A7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f>HEX2BIN(A7)</f>
+        <v>1100</v>
+      </c>
+      <c r="L7" s="10" t="str">
+        <f>HEX2OCT(A7)</f>
+        <v>14</v>
+      </c>
+      <c r="M7" s="10">
+        <f>HEX2DEC(A7)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="10" t="e">
+        <f>BIN2OCT(A8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" s="10" t="e">
+        <f>BIN2DEC(A8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" s="10" t="e">
+        <f>BIN2HEX(A8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" s="10" t="e">
+        <f>OCT2BIN(A8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" s="10" t="e">
+        <f>OCT2DEC(A8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" s="10" t="e">
+        <f>OCT2HEX(A8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" s="10" t="e">
+        <f>DEC2BIN(A8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="10" t="e">
+        <f>DEC2OCT(A8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" s="10" t="e">
+        <f>DEC2HEX(A8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f>HEX2BIN(A8)</f>
+        <v>1100</v>
+      </c>
+      <c r="L8" s="10" t="str">
+        <f>HEX2OCT(A8)</f>
+        <v>14</v>
+      </c>
+      <c r="M8" s="10">
+        <f>HEX2DEC(A8)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="e">
+        <f>BIN2OCT(A9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" s="10" t="e">
+        <f>BIN2DEC(A9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" s="10" t="e">
+        <f>BIN2HEX(A9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" s="10" t="e">
+        <f>OCT2BIN(A9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" s="10" t="e">
+        <f>OCT2DEC(A9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" s="10" t="e">
+        <f>OCT2HEX(A9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" s="10" t="e">
+        <f>DEC2BIN(A9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="10" t="e">
+        <f>DEC2OCT(A9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" s="10" t="e">
+        <f>DEC2HEX(A9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f>HEX2BIN(A9)</f>
+        <v>1101</v>
+      </c>
+      <c r="L9" s="10" t="str">
+        <f>HEX2OCT(A9)</f>
+        <v>15</v>
+      </c>
+      <c r="M9" s="10">
+        <f>HEX2DEC(A9)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="10" t="e">
+        <f>BIN2OCT(A10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" s="10" t="e">
+        <f>BIN2DEC(A10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" s="10" t="e">
+        <f>BIN2HEX(A10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" s="10" t="e">
+        <f>OCT2BIN(A10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" s="10" t="e">
+        <f>OCT2DEC(A10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" s="10" t="e">
+        <f>OCT2HEX(A10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" s="10" t="e">
+        <f>DEC2BIN(A10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="10" t="e">
+        <f>DEC2OCT(A10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="10" t="e">
+        <f>DEC2HEX(A10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f>HEX2BIN(A10)</f>
+        <v>1101</v>
+      </c>
+      <c r="L10" s="10" t="str">
+        <f>HEX2OCT(A10)</f>
+        <v>15</v>
+      </c>
+      <c r="M10" s="10">
+        <f>HEX2DEC(A10)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10" t="e">
+        <f>BIN2OCT(A11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" s="10" t="e">
+        <f>BIN2DEC(A11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="10" t="e">
+        <f>BIN2HEX(A11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" s="10" t="e">
+        <f>OCT2BIN(A11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" s="10" t="e">
+        <f>OCT2DEC(A11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" s="10" t="e">
+        <f>OCT2HEX(A11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" s="10" t="e">
+        <f>DEC2BIN(A11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="10" t="e">
+        <f>DEC2OCT(A11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="10" t="e">
+        <f>DEC2HEX(A11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f>HEX2BIN(A11)</f>
+        <v>1110</v>
+      </c>
+      <c r="L11" s="10" t="str">
+        <f>HEX2OCT(A11)</f>
+        <v>16</v>
+      </c>
+      <c r="M11" s="10">
+        <f>HEX2DEC(A11)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10" t="e">
+        <f>BIN2OCT(A12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" s="10" t="e">
+        <f>BIN2DEC(A12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" s="10" t="e">
+        <f>BIN2HEX(A12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" s="10" t="e">
+        <f>OCT2BIN(A12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F12" s="10" t="e">
+        <f>OCT2DEC(A12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G12" s="10" t="e">
+        <f>OCT2HEX(A12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H12" s="10" t="e">
+        <f>DEC2BIN(A12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="10" t="e">
+        <f>DEC2OCT(A12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="10" t="e">
+        <f>DEC2HEX(A12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f>HEX2BIN(A12)</f>
+        <v>1110</v>
+      </c>
+      <c r="L12" s="10" t="str">
+        <f>HEX2OCT(A12)</f>
+        <v>16</v>
+      </c>
+      <c r="M12" s="10">
+        <f>HEX2DEC(A12)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="10" t="e">
+        <f>BIN2OCT(A13)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C13" s="10" t="e">
+        <f>BIN2DEC(A13)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D13" s="10" t="e">
+        <f>BIN2HEX(A13)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" s="10" t="e">
+        <f>OCT2BIN(A13)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F13" s="10" t="e">
+        <f>OCT2DEC(A13)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G13" s="10" t="e">
+        <f>OCT2HEX(A13)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H13" s="10" t="e">
+        <f>DEC2BIN(A13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="10" t="e">
+        <f>DEC2OCT(A13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" s="10" t="e">
+        <f>DEC2HEX(A13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f>HEX2BIN(A13)</f>
+        <v>1111</v>
+      </c>
+      <c r="L13" s="10" t="str">
+        <f>HEX2OCT(A13)</f>
+        <v>17</v>
+      </c>
+      <c r="M13" s="10">
+        <f>HEX2DEC(A13)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="10" t="e">
+        <f>BIN2OCT(A14)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" s="10" t="e">
+        <f>BIN2DEC(A14)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" s="10" t="e">
+        <f>BIN2HEX(A14)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" s="10" t="e">
+        <f>OCT2BIN(A14)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F14" s="10" t="e">
+        <f>OCT2DEC(A14)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G14" s="10" t="e">
+        <f>OCT2HEX(A14)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H14" s="10" t="e">
+        <f>DEC2BIN(A14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="10" t="e">
+        <f>DEC2OCT(A14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J14" s="10" t="e">
+        <f>DEC2HEX(A14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f>HEX2BIN(A14)</f>
+        <v>1111</v>
+      </c>
+      <c r="L14" s="10" t="str">
+        <f>HEX2OCT(A14)</f>
+        <v>17</v>
+      </c>
+      <c r="M14" s="10">
+        <f>HEX2DEC(A14)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="10" t="e">
+        <f>BIN2OCT(A15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C15" s="10" t="e">
+        <f>BIN2DEC(A15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D15" s="10" t="e">
+        <f>BIN2HEX(A15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" s="10" t="e">
+        <f>OCT2BIN(A15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F15" s="10" t="e">
+        <f>OCT2DEC(A15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G15" s="10" t="e">
+        <f>OCT2HEX(A15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H15" s="10" t="e">
+        <f>DEC2BIN(A15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="10" t="e">
+        <f>DEC2OCT(A15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J15" s="10" t="e">
+        <f>DEC2HEX(A15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="10" t="e">
+        <f>HEX2BIN(A15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L15" s="10" t="e">
+        <f>HEX2OCT(A15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M15" s="10" t="e">
+        <f>HEX2DEC(A15)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="10" t="e">
+        <f>BIN2OCT(A16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C16" s="10" t="e">
+        <f>BIN2DEC(A16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D16" s="10" t="e">
+        <f>BIN2HEX(A16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" s="10" t="e">
+        <f>OCT2BIN(A16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F16" s="10" t="e">
+        <f>OCT2DEC(A16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G16" s="10" t="e">
+        <f>OCT2HEX(A16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H16" s="10" t="e">
+        <f>DEC2BIN(A16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="10" t="e">
+        <f>DEC2OCT(A16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" s="10" t="e">
+        <f>DEC2HEX(A16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="10" t="e">
+        <f>HEX2BIN(A16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L16" s="10" t="e">
+        <f>HEX2OCT(A16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M16" s="10" t="e">
+        <f>HEX2DEC(A16)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>"-A"</f>
+        <v>-A</v>
+      </c>
+      <c r="B17" s="10" t="e">
+        <f>BIN2OCT(A17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C17" s="10" t="e">
+        <f>BIN2DEC(A17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D17" s="10" t="e">
+        <f>BIN2HEX(A17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E17" s="10" t="e">
+        <f>OCT2BIN(A17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F17" s="10" t="e">
+        <f>OCT2DEC(A17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G17" s="10" t="e">
+        <f>OCT2HEX(A17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H17" s="10" t="e">
+        <f>DEC2BIN(A17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="10" t="e">
+        <f>DEC2OCT(A17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" s="10" t="e">
+        <f>DEC2HEX(A17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="10" t="e">
+        <f>HEX2BIN(A17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L17" s="10" t="e">
+        <f>HEX2OCT(A17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M17" s="10" t="e">
+        <f>HEX2DEC(A17)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="10" t="e">
+        <f>BIN2OCT(A18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C18" s="10" t="e">
+        <f>BIN2DEC(A18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D18" s="10" t="e">
+        <f>BIN2HEX(A18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" s="10" t="e">
+        <f>OCT2BIN(A18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F18" s="10" t="e">
+        <f>OCT2DEC(A18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G18" s="10" t="e">
+        <f>OCT2HEX(A18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H18" s="10" t="e">
+        <f>DEC2BIN(A18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="10" t="e">
+        <f>DEC2OCT(A18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" s="10" t="e">
+        <f>DEC2HEX(A18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="10" t="e">
+        <f>HEX2BIN(A18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L18" s="10" t="e">
+        <f>HEX2OCT(A18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M18" s="10" t="e">
+        <f>HEX2DEC(A18)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/resources/BASES.xlsx
+++ b/tests/resources/BASES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/cameron_pinnegar_education_gov_uk/Documents/Documents/xlcalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpinnegar\OneDrive - Department for Education\Documents\xlcalculator\tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{94A8F0F3-6224-4998-8E41-348F3478D04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD5095B3-EDA2-4D31-BF64-2D7CADBF566F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC0766-E2A2-4D2F-883D-F525CBA21B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22597" yWindow="-2400" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dec2" sheetId="1" r:id="rId1"/>
@@ -728,29 +728,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="F4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="7" width="17.265625" customWidth="1"/>
-    <col min="9" max="10" width="11.19921875" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.9296875" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
-    <col min="16" max="21" width="12.33203125" customWidth="1"/>
-    <col min="23" max="24" width="12.33203125" customWidth="1"/>
-    <col min="25" max="25" width="13.19921875" customWidth="1"/>
-    <col min="26" max="28" width="13.53125" customWidth="1"/>
-    <col min="30" max="30" width="17.46484375" customWidth="1"/>
-    <col min="31" max="31" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="7" width="17.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="21" width="12.28515625" customWidth="1"/>
+    <col min="23" max="24" width="12.28515625" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+    <col min="26" max="28" width="13.5703125" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
     </row>
-    <row r="2" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -963,7 +963,7 @@
         <v>FFFFFFFFFE</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>FFFFFFFFFD</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>FFFFFFFFFB</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>FFFFFFFFF7</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>FFFFFFFFEF</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>FFFFFFFFDF</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>FFFFFFFFBF</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>FFFFFFFF7F</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>FFFFFFFEFF</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>FFFFFFFDFF</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>FFFFFFFBFF</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>FFFFFFF7FF</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>FFFFFFEFFF</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>FFFFFFDFFF</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>FFFFFFBFFF</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>FFFFFF7FFF</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>FFFFFEFFFF</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>FFFFFDFFFF</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>FFFFFBFFFF</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>FFFFF7FFFF</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>FFFFEFFFFF</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>FFFFDFFFFF</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>FFFFBFFFFF</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>FFFF7FFFFF</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>FFFEFFFFFF</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>FFFDFFFFFF</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>FFFBFFFFFF</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>FFF7FFFFFF</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>FFEFFFFFFF</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>FFDFFFFFFF</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>FFBFFFFFFF</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>FF7FFFFFFF</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>FEFFFFFFFF</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>FDFFFFFFFF</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>FBFFFFFFFF</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>F7FFFFFFFF</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>EFFFFFFFFF</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>DFFFFFFFFF</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>3777777777</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>8000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>8000000000</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5609,15 +5609,15 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15.06640625" customWidth="1"/>
+    <col min="1" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>111</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1111</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>11111</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>1F</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>111111</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>3F</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1010101</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1111111</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>7F</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11111111</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>111111111</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>1FF</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1000000000</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>FFFFFFFE00</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1000000001</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>FFFFFFFE01</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1001010101</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>FFFFFFFE55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1111111111</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>FFFFFFFFFF</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10000000000</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -5968,16 +5968,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15.3984375" customWidth="1"/>
+    <col min="1" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>77</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>3F</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>777</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>1FF</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7777</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>FFF</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>77777</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>7FFF</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>777777</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>3FFFF</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7777777</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>1FFFFF</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>77777777</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>FFFFFF</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>777777777</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>7FFFFFF</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1000000000</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3777777777</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>1FFFFFFF</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4000000000</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>FFE0000000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4444444444</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>FFE4924924</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7777776777</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>FFFFFFFDFF</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7777777000</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>FFFFFFFE00</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7777777001</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>FFFFFFFE01</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7777777123</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>FFFFFFFE53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7777777000</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>FFFFFFFE00</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7777777777</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>FFFFFFFFFF</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10000000000</v>
       </c>
@@ -6481,20 +6481,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1328125" customWidth="1"/>
-    <col min="2" max="4" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="4" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.06640625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>200</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>300</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>1048575</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>16777215</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>268435455</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10000000</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>268435456</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20000000</v>
       </c>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20000001</v>
       </c>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1000000000</v>
       </c>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8000000000</v>
       </c>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9000000000</v>
       </c>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10000000000</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -7340,24 +7340,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5F4525-29BC-435A-8A1E-332B37198F8C}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12.1328125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -7392,7 +7390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -7436,7 +7434,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>10</v>
       </c>
@@ -7480,7 +7478,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>10</v>
       </c>
@@ -7524,7 +7522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>10</v>
       </c>
@@ -7568,7 +7566,7 @@
         <v>020</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>10</v>
       </c>
@@ -7612,7 +7610,7 @@
         <v>0020</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>10</v>
       </c>
@@ -7656,7 +7654,7 @@
         <v>00020</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>10</v>
       </c>
@@ -7700,7 +7698,7 @@
         <v>000020</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>10</v>
       </c>
@@ -7744,7 +7742,7 @@
         <v>0000020</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>10</v>
       </c>
@@ -7788,7 +7786,7 @@
         <v>00000020</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -7832,7 +7830,7 @@
         <v>000000020</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -7876,7 +7874,7 @@
         <v>0000000020</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -7920,7 +7918,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>123</v>
       </c>
@@ -7964,7 +7962,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>123</v>
       </c>
@@ -8008,7 +8006,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>123</v>
       </c>
@@ -8052,7 +8050,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>123</v>
       </c>
@@ -8096,7 +8094,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>123</v>
       </c>
@@ -8140,7 +8138,7 @@
         <v>0443</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>123</v>
       </c>
@@ -8184,7 +8182,7 @@
         <v>00443</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>123</v>
       </c>
@@ -8228,7 +8226,7 @@
         <v>000443</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>123</v>
       </c>
@@ -8272,7 +8270,7 @@
         <v>0000443</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>123</v>
       </c>
@@ -8316,7 +8314,7 @@
         <v>00000443</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>123</v>
       </c>
@@ -8360,7 +8358,7 @@
         <v>000000443</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>123</v>
       </c>
@@ -8404,7 +8402,7 @@
         <v>0000000443</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>123</v>
       </c>
@@ -8448,7 +8446,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>-25</v>
       </c>
@@ -8492,7 +8490,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>-25</v>
       </c>
@@ -8536,7 +8534,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>-25</v>
       </c>
@@ -8580,7 +8578,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>-25</v>
       </c>
@@ -8624,7 +8622,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>-25</v>
       </c>
@@ -8668,7 +8666,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>-25</v>
       </c>
@@ -8712,7 +8710,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>-25</v>
       </c>
@@ -8756,7 +8754,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>-25</v>
       </c>
@@ -8800,7 +8798,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>-25</v>
       </c>
@@ -8844,7 +8842,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>-25</v>
       </c>
@@ -8888,7 +8886,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>-25</v>
       </c>
@@ -8932,7 +8930,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>-25</v>
       </c>
@@ -8976,7 +8974,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9020,7 +9018,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>27</v>
       </c>
@@ -9064,7 +9062,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>27</v>
       </c>
@@ -9108,7 +9106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>27</v>
       </c>
@@ -9152,7 +9150,7 @@
         <v>016</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>27</v>
       </c>
@@ -9196,7 +9194,7 @@
         <v>0016</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>27</v>
       </c>
@@ -9240,7 +9238,7 @@
         <v>00016</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>27</v>
       </c>
@@ -9284,7 +9282,7 @@
         <v>000016</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>27</v>
       </c>
@@ -9328,7 +9326,7 @@
         <v>0000016</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>27</v>
       </c>
@@ -9372,7 +9370,7 @@
         <v>00000016</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>27</v>
       </c>
@@ -9416,7 +9414,7 @@
         <v>000000016</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>27</v>
       </c>
@@ -9460,7 +9458,7 @@
         <v>0000000016</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>27</v>
       </c>
@@ -9514,25 +9512,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064D80C5-7CD0-482D-B2FD-DC296BB55253}">
   <dimension ref="A1:AO37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="13" width="11.796875" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="11.33203125" customWidth="1"/>
-    <col min="29" max="29" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="41" width="12.46484375" customWidth="1"/>
+    <col min="2" max="13" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="11.28515625" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="41" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -9563,7 +9561,7 @@
       <c r="AN3" s="10"/>
       <c r="AO3" s="10"/>
     </row>
-    <row r="4" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -9682,7 +9680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>0</v>
       </c>
@@ -9837,7 +9835,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -9992,7 +9990,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -10147,7 +10145,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -10302,7 +10300,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>-1</v>
       </c>
@@ -10457,7 +10455,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>-2</v>
       </c>
@@ -10612,7 +10610,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>-3</v>
       </c>
@@ -10767,7 +10765,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -10922,7 +10920,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -11077,7 +11075,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -11232,7 +11230,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>-11</v>
       </c>
@@ -11387,7 +11385,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>-12</v>
       </c>
@@ -11542,7 +11540,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>-13</v>
       </c>
@@ -11697,7 +11695,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>101</v>
       </c>
@@ -11852,7 +11850,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>102</v>
       </c>
@@ -12007,7 +12005,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>103</v>
       </c>
@@ -12162,7 +12160,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>-101</v>
       </c>
@@ -12317,7 +12315,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>-102</v>
       </c>
@@ -12472,7 +12470,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>-103</v>
       </c>
@@ -12627,7 +12625,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>510</v>
       </c>
@@ -12784,7 +12782,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>511</v>
       </c>
@@ -12941,7 +12939,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>512</v>
       </c>
@@ -13098,7 +13096,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>513</v>
       </c>
@@ -13255,7 +13253,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>-510</v>
       </c>
@@ -13412,7 +13410,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>-511</v>
       </c>
@@ -13569,7 +13567,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>-512</v>
       </c>
@@ -13726,7 +13724,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>-513</v>
       </c>
@@ -13883,7 +13881,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
@@ -13897,7 +13895,7 @@
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
     </row>
-    <row r="33" spans="16:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="16:27" x14ac:dyDescent="0.2">
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
@@ -13911,7 +13909,7 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
     </row>
-    <row r="34" spans="16:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="16:27" x14ac:dyDescent="0.2">
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -13925,7 +13923,7 @@
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
     </row>
-    <row r="35" spans="16:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="16:27" x14ac:dyDescent="0.2">
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -13939,7 +13937,7 @@
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
     </row>
-    <row r="36" spans="16:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="16:27" x14ac:dyDescent="0.2">
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
@@ -13953,7 +13951,7 @@
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
     </row>
-    <row r="37" spans="16:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="16:27" x14ac:dyDescent="0.2">
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -13975,15 +13973,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6502EA-E4C7-407D-A5DD-F91B4FE71DB5}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
@@ -14021,902 +14019,967 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="str">
-        <f>BIN2OCT(A2)</f>
+        <f t="shared" ref="B2:B19" si="0">BIN2OCT(A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <f>BIN2DEC(A2)</f>
+        <f t="shared" ref="C2:C19" si="1">BIN2DEC(A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>BIN2HEX(A2)</f>
+        <f t="shared" ref="D2:D19" si="2">BIN2HEX(A2)</f>
         <v>0</v>
       </c>
       <c r="E2" s="10" t="str">
-        <f>OCT2BIN(A2)</f>
+        <f t="shared" ref="E2:E19" si="3">OCT2BIN(A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="10">
-        <f>OCT2DEC(A2)</f>
+        <f t="shared" ref="F2:F19" si="4">OCT2DEC(A2)</f>
         <v>0</v>
       </c>
       <c r="G2" s="10" t="str">
-        <f>OCT2HEX(A2)</f>
+        <f t="shared" ref="G2:G19" si="5">OCT2HEX(A2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="10" t="str">
-        <f>DEC2BIN(A2)</f>
+        <f t="shared" ref="H2:H19" si="6">DEC2BIN(A2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="10" t="str">
-        <f>DEC2OCT(A2)</f>
+        <f t="shared" ref="I2:I19" si="7">DEC2OCT(A2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="10" t="str">
-        <f>DEC2HEX(A2)</f>
+        <f t="shared" ref="J2:J19" si="8">DEC2HEX(A2)</f>
         <v>0</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f>HEX2BIN(A2)</f>
+        <f t="shared" ref="K2:K19" si="9">HEX2BIN(A2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="10" t="str">
-        <f>HEX2OCT(A2)</f>
+        <f t="shared" ref="L2:L19" si="10">HEX2OCT(A2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="10">
-        <f>HEX2DEC(A2)</f>
+        <f t="shared" ref="M2:M19" si="11">HEX2DEC(A2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <f t="shared" ref="C3" si="12">BIN2DEC(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f t="shared" ref="D3" si="13">BIN2HEX(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f t="shared" ref="E3" si="14">OCT2BIN(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3" si="15">OCT2DEC(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="str">
+        <f t="shared" ref="G3" si="16">OCT2HEX(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="e">
+        <f t="shared" ref="H3" si="17">DEC2BIN(A3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" s="10" t="e">
+        <f t="shared" ref="I3" si="18">DEC2OCT(A3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" s="10" t="e">
+        <f t="shared" ref="J3" si="19">DEC2HEX(A3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="10" t="str">
+        <f t="shared" ref="K3" si="20">HEX2BIN(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="str">
+        <f t="shared" ref="L3" si="21">HEX2OCT(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3" si="22">HEX2DEC(A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="e">
-        <f>BIN2OCT(A3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" s="10" t="e">
-        <f>BIN2DEC(A3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" s="10" t="e">
-        <f>BIN2HEX(A3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" s="10" t="e">
-        <f>OCT2BIN(A3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" s="10" t="e">
-        <f>OCT2DEC(A3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" s="10" t="e">
-        <f>OCT2HEX(A3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" s="10" t="e">
-        <f>DEC2BIN(A3)</f>
+      <c r="B4" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I3" s="10" t="e">
-        <f>DEC2OCT(A3)</f>
+      <c r="I4" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J3" s="10" t="e">
-        <f>DEC2HEX(A3)</f>
+      <c r="J4" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K3" s="10" t="str">
-        <f>HEX2BIN(A3)</f>
+      <c r="K4" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1010</v>
       </c>
-      <c r="L3" s="10" t="str">
-        <f>HEX2OCT(A3)</f>
+      <c r="L4" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="M3" s="10">
-        <f>HEX2DEC(A3)</f>
+      <c r="M4" s="10">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="10" t="e">
-        <f>BIN2OCT(A4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" s="10" t="e">
-        <f>BIN2DEC(A4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" s="10" t="e">
-        <f>BIN2HEX(A4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" s="10" t="e">
-        <f>OCT2BIN(A4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" s="10" t="e">
-        <f>OCT2DEC(A4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" s="10" t="e">
-        <f>OCT2HEX(A4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" s="10" t="e">
-        <f>DEC2BIN(A4)</f>
+      <c r="B5" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I4" s="10" t="e">
-        <f>DEC2OCT(A4)</f>
+      <c r="I5" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="10" t="e">
-        <f>DEC2HEX(A4)</f>
+      <c r="J5" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K4" s="10" t="str">
-        <f>HEX2BIN(A4)</f>
+      <c r="K5" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1010</v>
       </c>
-      <c r="L4" s="10" t="str">
-        <f>HEX2OCT(A4)</f>
+      <c r="L5" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="M4" s="10">
-        <f>HEX2DEC(A4)</f>
+      <c r="M5" s="10">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="e">
-        <f>BIN2OCT(A5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" s="10" t="e">
-        <f>BIN2DEC(A5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" s="10" t="e">
-        <f>BIN2HEX(A5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" s="10" t="e">
-        <f>OCT2BIN(A5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" s="10" t="e">
-        <f>OCT2DEC(A5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="10" t="e">
-        <f>OCT2HEX(A5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" s="10" t="e">
-        <f>DEC2BIN(A5)</f>
+      <c r="B6" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="10" t="e">
-        <f>DEC2OCT(A5)</f>
+      <c r="I6" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="10" t="e">
-        <f>DEC2HEX(A5)</f>
+      <c r="J6" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="10" t="str">
-        <f>HEX2BIN(A5)</f>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1011</v>
       </c>
-      <c r="L5" s="10" t="str">
-        <f>HEX2OCT(A5)</f>
+      <c r="L6" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="M5" s="10">
-        <f>HEX2DEC(A5)</f>
+      <c r="M6" s="10">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="10" t="e">
-        <f>BIN2OCT(A6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" s="10" t="e">
-        <f>BIN2DEC(A6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" s="10" t="e">
-        <f>BIN2HEX(A6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" s="10" t="e">
-        <f>OCT2BIN(A6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" s="10" t="e">
-        <f>OCT2DEC(A6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="10" t="e">
-        <f>OCT2HEX(A6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="10" t="e">
-        <f>DEC2BIN(A6)</f>
+      <c r="B7" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="10" t="e">
-        <f>DEC2OCT(A6)</f>
+      <c r="I7" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="10" t="e">
-        <f>DEC2HEX(A6)</f>
+      <c r="J7" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="10" t="str">
-        <f>HEX2BIN(A6)</f>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1011</v>
       </c>
-      <c r="L6" s="10" t="str">
-        <f>HEX2OCT(A6)</f>
+      <c r="L7" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="M6" s="10">
-        <f>HEX2DEC(A6)</f>
+      <c r="M7" s="10">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="10" t="e">
-        <f>BIN2OCT(A7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" s="10" t="e">
-        <f>BIN2DEC(A7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" s="10" t="e">
-        <f>BIN2HEX(A7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" s="10" t="e">
-        <f>OCT2BIN(A7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" s="10" t="e">
-        <f>OCT2DEC(A7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" s="10" t="e">
-        <f>OCT2HEX(A7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" s="10" t="e">
-        <f>DEC2BIN(A7)</f>
+      <c r="B8" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I7" s="10" t="e">
-        <f>DEC2OCT(A7)</f>
+      <c r="I8" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="10" t="e">
-        <f>DEC2HEX(A7)</f>
+      <c r="J8" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="10" t="str">
-        <f>HEX2BIN(A7)</f>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1100</v>
       </c>
-      <c r="L7" s="10" t="str">
-        <f>HEX2OCT(A7)</f>
+      <c r="L8" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="M7" s="10">
-        <f>HEX2DEC(A7)</f>
+      <c r="M8" s="10">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="10" t="e">
-        <f>BIN2OCT(A8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" s="10" t="e">
-        <f>BIN2DEC(A8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" s="10" t="e">
-        <f>BIN2HEX(A8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" s="10" t="e">
-        <f>OCT2BIN(A8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" s="10" t="e">
-        <f>OCT2DEC(A8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" s="10" t="e">
-        <f>OCT2HEX(A8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" s="10" t="e">
-        <f>DEC2BIN(A8)</f>
+      <c r="B9" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="10" t="e">
-        <f>DEC2OCT(A8)</f>
+      <c r="I9" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="10" t="e">
-        <f>DEC2HEX(A8)</f>
+      <c r="J9" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="10" t="str">
-        <f>HEX2BIN(A8)</f>
+      <c r="K9" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1100</v>
       </c>
-      <c r="L8" s="10" t="str">
-        <f>HEX2OCT(A8)</f>
+      <c r="L9" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="M8" s="10">
-        <f>HEX2DEC(A8)</f>
+      <c r="M9" s="10">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="10" t="e">
-        <f>BIN2OCT(A9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" s="10" t="e">
-        <f>BIN2DEC(A9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" s="10" t="e">
-        <f>BIN2HEX(A9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" s="10" t="e">
-        <f>OCT2BIN(A9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" s="10" t="e">
-        <f>OCT2DEC(A9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" s="10" t="e">
-        <f>OCT2HEX(A9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" s="10" t="e">
-        <f>DEC2BIN(A9)</f>
+      <c r="B10" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I9" s="10" t="e">
-        <f>DEC2OCT(A9)</f>
+      <c r="I10" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J9" s="10" t="e">
-        <f>DEC2HEX(A9)</f>
+      <c r="J10" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="10" t="str">
-        <f>HEX2BIN(A9)</f>
+      <c r="K10" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1101</v>
       </c>
-      <c r="L9" s="10" t="str">
-        <f>HEX2OCT(A9)</f>
+      <c r="L10" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="M9" s="10">
-        <f>HEX2DEC(A9)</f>
+      <c r="M10" s="10">
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="10" t="e">
-        <f>BIN2OCT(A10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" s="10" t="e">
-        <f>BIN2DEC(A10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" s="10" t="e">
-        <f>BIN2HEX(A10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" s="10" t="e">
-        <f>OCT2BIN(A10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" s="10" t="e">
-        <f>OCT2DEC(A10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" s="10" t="e">
-        <f>OCT2HEX(A10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" s="10" t="e">
-        <f>DEC2BIN(A10)</f>
+      <c r="B11" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I10" s="10" t="e">
-        <f>DEC2OCT(A10)</f>
+      <c r="I11" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J10" s="10" t="e">
-        <f>DEC2HEX(A10)</f>
+      <c r="J11" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="10" t="str">
-        <f>HEX2BIN(A10)</f>
+      <c r="K11" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1101</v>
       </c>
-      <c r="L10" s="10" t="str">
-        <f>HEX2OCT(A10)</f>
+      <c r="L11" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="M10" s="10">
-        <f>HEX2DEC(A10)</f>
+      <c r="M11" s="10">
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="e">
-        <f>BIN2OCT(A11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" s="10" t="e">
-        <f>BIN2DEC(A11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D11" s="10" t="e">
-        <f>BIN2HEX(A11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" s="10" t="e">
-        <f>OCT2BIN(A11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F11" s="10" t="e">
-        <f>OCT2DEC(A11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" s="10" t="e">
-        <f>OCT2HEX(A11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H11" s="10" t="e">
-        <f>DEC2BIN(A11)</f>
+      <c r="B12" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F12" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G12" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H12" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I11" s="10" t="e">
-        <f>DEC2OCT(A11)</f>
+      <c r="I12" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="10" t="e">
-        <f>DEC2HEX(A11)</f>
+      <c r="J12" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="10" t="str">
-        <f>HEX2BIN(A11)</f>
+      <c r="K12" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1110</v>
       </c>
-      <c r="L11" s="10" t="str">
-        <f>HEX2OCT(A11)</f>
+      <c r="L12" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="M11" s="10">
-        <f>HEX2DEC(A11)</f>
+      <c r="M12" s="10">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="10" t="e">
-        <f>BIN2OCT(A12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C12" s="10" t="e">
-        <f>BIN2DEC(A12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D12" s="10" t="e">
-        <f>BIN2HEX(A12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" s="10" t="e">
-        <f>OCT2BIN(A12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F12" s="10" t="e">
-        <f>OCT2DEC(A12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G12" s="10" t="e">
-        <f>OCT2HEX(A12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H12" s="10" t="e">
-        <f>DEC2BIN(A12)</f>
+      <c r="B13" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C13" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D13" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F13" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G13" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H13" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I12" s="10" t="e">
-        <f>DEC2OCT(A12)</f>
+      <c r="I13" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="10" t="e">
-        <f>DEC2HEX(A12)</f>
+      <c r="J13" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="10" t="str">
-        <f>HEX2BIN(A12)</f>
+      <c r="K13" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1110</v>
       </c>
-      <c r="L12" s="10" t="str">
-        <f>HEX2OCT(A12)</f>
+      <c r="L13" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="M12" s="10">
-        <f>HEX2DEC(A12)</f>
+      <c r="M13" s="10">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10" t="e">
-        <f>BIN2OCT(A13)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C13" s="10" t="e">
-        <f>BIN2DEC(A13)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D13" s="10" t="e">
-        <f>BIN2HEX(A13)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" s="10" t="e">
-        <f>OCT2BIN(A13)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F13" s="10" t="e">
-        <f>OCT2DEC(A13)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" s="10" t="e">
-        <f>OCT2HEX(A13)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H13" s="10" t="e">
-        <f>DEC2BIN(A13)</f>
+      <c r="B14" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F14" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G14" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H14" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I13" s="10" t="e">
-        <f>DEC2OCT(A13)</f>
+      <c r="I14" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J13" s="10" t="e">
-        <f>DEC2HEX(A13)</f>
+      <c r="J14" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="10" t="str">
-        <f>HEX2BIN(A13)</f>
+      <c r="K14" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1111</v>
       </c>
-      <c r="L13" s="10" t="str">
-        <f>HEX2OCT(A13)</f>
+      <c r="L14" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="M13" s="10">
-        <f>HEX2DEC(A13)</f>
+      <c r="M14" s="10">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="Q14">
+        <v>110</v>
+      </c>
+      <c r="R14" t="str">
+        <f>BIN2HEX(Q14,Q15)</f>
+        <v>00006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="10" t="e">
-        <f>BIN2OCT(A14)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C14" s="10" t="e">
-        <f>BIN2DEC(A14)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D14" s="10" t="e">
-        <f>BIN2HEX(A14)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" s="10" t="e">
-        <f>OCT2BIN(A14)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F14" s="10" t="e">
-        <f>OCT2DEC(A14)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" s="10" t="e">
-        <f>OCT2HEX(A14)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H14" s="10" t="e">
-        <f>DEC2BIN(A14)</f>
+      <c r="B15" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C15" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D15" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F15" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G15" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H15" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I14" s="10" t="e">
-        <f>DEC2OCT(A14)</f>
+      <c r="I15" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J14" s="10" t="e">
-        <f>DEC2HEX(A14)</f>
+      <c r="J15" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="10" t="str">
-        <f>HEX2BIN(A14)</f>
+      <c r="K15" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>1111</v>
       </c>
-      <c r="L14" s="10" t="str">
-        <f>HEX2OCT(A14)</f>
+      <c r="L15" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="M14" s="10">
-        <f>HEX2DEC(A14)</f>
+      <c r="M15" s="10">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="Q15" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="10" t="e">
-        <f>BIN2OCT(A15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C15" s="10" t="e">
-        <f>BIN2DEC(A15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D15" s="10" t="e">
-        <f>BIN2HEX(A15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" s="10" t="e">
-        <f>OCT2BIN(A15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F15" s="10" t="e">
-        <f>OCT2DEC(A15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" s="10" t="e">
-        <f>OCT2HEX(A15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H15" s="10" t="e">
-        <f>DEC2BIN(A15)</f>
+      <c r="B16" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C16" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D16" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F16" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G16" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H16" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I15" s="10" t="e">
-        <f>DEC2OCT(A15)</f>
+      <c r="I16" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J15" s="10" t="e">
-        <f>DEC2HEX(A15)</f>
+      <c r="J16" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="10" t="e">
-        <f>HEX2BIN(A15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L15" s="10" t="e">
-        <f>HEX2OCT(A15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M15" s="10" t="e">
-        <f>HEX2DEC(A15)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="K16" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L16" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M16" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="10" t="e">
-        <f>BIN2OCT(A16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C16" s="10" t="e">
-        <f>BIN2DEC(A16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D16" s="10" t="e">
-        <f>BIN2HEX(A16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" s="10" t="e">
-        <f>OCT2BIN(A16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F16" s="10" t="e">
-        <f>OCT2DEC(A16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" s="10" t="e">
-        <f>OCT2HEX(A16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H16" s="10" t="e">
-        <f>DEC2BIN(A16)</f>
+      <c r="B17" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C17" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D17" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E17" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F17" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G17" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H17" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I16" s="10" t="e">
-        <f>DEC2OCT(A16)</f>
+      <c r="I17" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="10" t="e">
-        <f>DEC2HEX(A16)</f>
+      <c r="J17" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="10" t="e">
-        <f>HEX2BIN(A16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L16" s="10" t="e">
-        <f>HEX2OCT(A16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M16" s="10" t="e">
-        <f>HEX2DEC(A16)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
+      <c r="K17" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L17" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M17" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
         <f>"-A"</f>
         <v>-A</v>
       </c>
-      <c r="B17" s="10" t="e">
-        <f>BIN2OCT(A17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C17" s="10" t="e">
-        <f>BIN2DEC(A17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D17" s="10" t="e">
-        <f>BIN2HEX(A17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E17" s="10" t="e">
-        <f>OCT2BIN(A17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F17" s="10" t="e">
-        <f>OCT2DEC(A17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G17" s="10" t="e">
-        <f>OCT2HEX(A17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H17" s="10" t="e">
-        <f>DEC2BIN(A17)</f>
+      <c r="B18" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C18" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F18" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G18" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H18" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I17" s="10" t="e">
-        <f>DEC2OCT(A17)</f>
+      <c r="I18" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="10" t="e">
-        <f>DEC2HEX(A17)</f>
+      <c r="J18" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="10" t="e">
-        <f>HEX2BIN(A17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L17" s="10" t="e">
-        <f>HEX2OCT(A17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M17" s="10" t="e">
-        <f>HEX2DEC(A17)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="K18" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L18" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M18" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="10" t="e">
-        <f>BIN2OCT(A18)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C18" s="10" t="e">
-        <f>BIN2DEC(A18)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D18" s="10" t="e">
-        <f>BIN2HEX(A18)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" s="10" t="e">
-        <f>OCT2BIN(A18)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F18" s="10" t="e">
-        <f>OCT2DEC(A18)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G18" s="10" t="e">
-        <f>OCT2HEX(A18)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H18" s="10" t="e">
-        <f>DEC2BIN(A18)</f>
+      <c r="B19" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C19" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D19" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E19" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F19" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G19" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H19" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I18" s="10" t="e">
-        <f>DEC2OCT(A18)</f>
+      <c r="I19" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J18" s="10" t="e">
-        <f>DEC2HEX(A18)</f>
+      <c r="J19" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K18" s="10" t="e">
-        <f>HEX2BIN(A18)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L18" s="10" t="e">
-        <f>HEX2OCT(A18)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M18" s="10" t="e">
-        <f>HEX2DEC(A18)</f>
+      <c r="K19" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L19" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M19" s="10" t="e">
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
     </row>
